--- a/matrix NEW VERS.xlsx
+++ b/matrix NEW VERS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookairm1/PycharmProjects/Matrice_Disciplinaire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58452C2F-E9A5-D74B-AC47-597FD3F1F50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A47B98-DB7A-034E-845D-5D96485384F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{96B5694C-F753-7C46-A730-FF55F3B13FB1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{96B5694C-F753-7C46-A730-FF55F3B13FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">APP!$A$1:$AG$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">APP!$A$1:$AG$278</definedName>
     <definedName name="ANNEEES">'[1]RECAP GENERAL'!$C$2:$I$2</definedName>
     <definedName name="CatFaute">#REF!</definedName>
     <definedName name="CatFautes">#REF!</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="829">
   <si>
     <t>DATE ENR</t>
   </si>
@@ -2367,6 +2367,180 @@
   </si>
   <si>
     <t>ANNEE DE PUNITION</t>
+  </si>
+  <si>
+    <t>EXPRESS</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>N° 056/4 DU 16/02/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° 021/4/GRUR-GN/ULCIR/BSR1 DU 30/01/2025 </t>
+  </si>
+  <si>
+    <t>N° 08/CSG/GRUR-GN/ULCIR/ BSR 3 DU 31/01/2025</t>
+  </si>
+  <si>
+    <t>N° 027/4/GRUR-GN/ULCIR/BSR1 DU 30/01/2025</t>
+  </si>
+  <si>
+    <t>N° 033/4/GRUR-GN/ULCIR/BSR1 DU 30/01/2025</t>
+  </si>
+  <si>
+    <t>N° 11/4 DU 14/01/2025</t>
+  </si>
+  <si>
+    <t>N° 113/4 DU 20/08/2024</t>
+  </si>
+  <si>
+    <t>N° 22/4 DU 06/02/2024</t>
+  </si>
+  <si>
+    <t>N° 002/4/GRURGN/GDR/RGTS DU 25/01/2025</t>
+  </si>
+  <si>
+    <t>N° 001/4 DU 19/02/2025</t>
+  </si>
+  <si>
+    <t>N° 022/4 DU 15/01/2025</t>
+  </si>
+  <si>
+    <t>N° 19/4 DU 03/02/2025</t>
+  </si>
+  <si>
+    <t>N° 26/4 DU 15/01/2025</t>
+  </si>
+  <si>
+    <t>N° 08/4GSPA DU 13/01/2025</t>
+  </si>
+  <si>
+    <t>N° 29/4 DU 04/02/2025</t>
+  </si>
+  <si>
+    <t>N° 05/4 DU 08/01/2025</t>
+  </si>
+  <si>
+    <t>N° 86/4 DU 02/02/2025</t>
+  </si>
+  <si>
+    <t>N° 84/4 DU 08/02/2025</t>
+  </si>
+  <si>
+    <t>N° 87/4 DU 08/02/2025</t>
+  </si>
+  <si>
+    <t>NEGONNE BI BOUA MARCEL</t>
+  </si>
+  <si>
+    <t>KOUAKOU KOUAME JEAN-LUC</t>
+  </si>
+  <si>
+    <t>N'GORAN JEAN MICHAEL JONATHAN</t>
+  </si>
+  <si>
+    <t>KOUAME KOUASSI SEVERIN</t>
+  </si>
+  <si>
+    <t>DAGO KEDY ENOCH</t>
+  </si>
+  <si>
+    <t>GNOLEBA GNOLEBA ARTHUR DAVY</t>
+  </si>
+  <si>
+    <t>KONE ALLASSANE</t>
+  </si>
+  <si>
+    <t>KOFFI KOUAKOU LEANDRE ARNAUD</t>
+  </si>
+  <si>
+    <t>VAHO BEBLEDI HERVE RAOUL</t>
+  </si>
+  <si>
+    <t>DOUMBIA ALI</t>
+  </si>
+  <si>
+    <t>BRIKA ETIENNE</t>
+  </si>
+  <si>
+    <t>THIO KLINMALO BERNARD</t>
+  </si>
+  <si>
+    <t>DAGNOGO ISAAC KADER</t>
+  </si>
+  <si>
+    <t>DAFLAN ISMAEL CYRILLE</t>
+  </si>
+  <si>
+    <t>TRAORE MOUSSA</t>
+  </si>
+  <si>
+    <t>AMOROFY KOUABENA TEHUA ALAIN</t>
+  </si>
+  <si>
+    <t>VANGAH BRICE LANDRY</t>
+  </si>
+  <si>
+    <t>YE OSCAR</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
+  </si>
+  <si>
+    <t>20/02/2025</t>
+  </si>
+  <si>
+    <t>21/02/2025</t>
+  </si>
+  <si>
+    <t>BDE GAGNOA</t>
+  </si>
+  <si>
+    <t>BSR3</t>
+  </si>
+  <si>
+    <t>BDE KOKUMBO</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>14/12/2024</t>
+  </si>
+  <si>
+    <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>27/02/2024</t>
+  </si>
+  <si>
+    <t>22/01/2025</t>
+  </si>
+  <si>
+    <t>26/12/2024</t>
+  </si>
+  <si>
+    <t>30/01/2025</t>
+  </si>
+  <si>
+    <t>30/12/2024</t>
+  </si>
+  <si>
+    <t>EN INSTANCE</t>
   </si>
 </sst>
 </file>
@@ -2525,7 +2699,52 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="0" tint="-0.49754325998718224"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="0" tint="-0.49754325998718224"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="0" tint="-0.49754325998718224"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2984,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920FBCE2-ECBC-114F-95CB-CC30D0CF8C32}">
-  <dimension ref="A1:AH259"/>
+  <dimension ref="A1:AH302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+      <selection activeCell="Z272" sqref="Z272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3203,7 +3422,7 @@
       <c r="AE2" s="16">
         <v>2024</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="16">
         <v>0</v>
       </c>
       <c r="AG2" s="11" t="s">
@@ -3291,7 +3510,7 @@
         <v>2022</v>
       </c>
       <c r="AE3" s="16"/>
-      <c r="AF3" s="11">
+      <c r="AF3" s="16">
         <v>32</v>
       </c>
       <c r="AG3" s="11" t="s">
@@ -3379,7 +3598,7 @@
         <v>2022</v>
       </c>
       <c r="AE4" s="16"/>
-      <c r="AF4" s="11">
+      <c r="AF4" s="16">
         <v>32</v>
       </c>
       <c r="AG4" s="11" t="s">
@@ -3469,7 +3688,7 @@
       <c r="AE5" s="16">
         <v>2024</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="16">
         <v>32</v>
       </c>
       <c r="AG5" s="11" t="s">
@@ -3559,7 +3778,7 @@
       <c r="AE6" s="16">
         <v>2024</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="16">
         <v>32</v>
       </c>
       <c r="AG6" s="11" t="s">
@@ -3647,7 +3866,7 @@
         <v>2023</v>
       </c>
       <c r="AE7" s="16"/>
-      <c r="AF7" s="11">
+      <c r="AF7" s="16">
         <v>32</v>
       </c>
       <c r="AG7" s="11" t="s">
@@ -3737,7 +3956,7 @@
       <c r="AE8" s="16">
         <v>2024</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8" s="16">
         <v>32</v>
       </c>
       <c r="AG8" s="11" t="s">
@@ -3827,7 +4046,7 @@
       <c r="AE9" s="16">
         <v>2024</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9" s="16">
         <v>32</v>
       </c>
       <c r="AG9" s="11" t="s">
@@ -3917,7 +4136,7 @@
       <c r="AE10" s="16">
         <v>2024</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF10" s="16">
         <v>32</v>
       </c>
       <c r="AG10" s="11" t="s">
@@ -4005,7 +4224,7 @@
         <v>2023</v>
       </c>
       <c r="AE11" s="16"/>
-      <c r="AF11" s="11">
+      <c r="AF11" s="16">
         <v>32</v>
       </c>
       <c r="AG11" s="11" t="s">
@@ -4093,7 +4312,7 @@
         <v>2023</v>
       </c>
       <c r="AE12" s="16"/>
-      <c r="AF12" s="11">
+      <c r="AF12" s="16">
         <v>32</v>
       </c>
       <c r="AG12" s="11" t="s">
@@ -4181,7 +4400,7 @@
         <v>2023</v>
       </c>
       <c r="AE13" s="16"/>
-      <c r="AF13" s="11">
+      <c r="AF13" s="16">
         <v>32</v>
       </c>
       <c r="AG13" s="11" t="s">
@@ -4269,7 +4488,7 @@
         <v>2023</v>
       </c>
       <c r="AE14" s="16"/>
-      <c r="AF14" s="11">
+      <c r="AF14" s="16">
         <v>32</v>
       </c>
       <c r="AG14" s="11" t="s">
@@ -4359,7 +4578,7 @@
       <c r="AE15" s="16">
         <v>2024</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AF15" s="16">
         <v>32</v>
       </c>
       <c r="AG15" s="11" t="s">
@@ -4447,7 +4666,7 @@
         <v>2023</v>
       </c>
       <c r="AE16" s="16"/>
-      <c r="AF16" s="11">
+      <c r="AF16" s="16">
         <v>32</v>
       </c>
       <c r="AG16" s="11" t="s">
@@ -4535,7 +4754,7 @@
         <v>2023</v>
       </c>
       <c r="AE17" s="16"/>
-      <c r="AF17" s="11">
+      <c r="AF17" s="16">
         <v>0</v>
       </c>
       <c r="AG17" s="11" t="s">
@@ -4623,7 +4842,7 @@
         <v>2023</v>
       </c>
       <c r="AE18" s="16"/>
-      <c r="AF18" s="11">
+      <c r="AF18" s="16">
         <v>0</v>
       </c>
       <c r="AG18" s="11" t="s">
@@ -4711,7 +4930,7 @@
         <v>2023</v>
       </c>
       <c r="AE19" s="16"/>
-      <c r="AF19" s="11">
+      <c r="AF19" s="16">
         <v>0</v>
       </c>
       <c r="AG19" s="11" t="s">
@@ -4799,7 +5018,7 @@
         <v>2023</v>
       </c>
       <c r="AE20" s="16"/>
-      <c r="AF20" s="11">
+      <c r="AF20" s="16">
         <v>0</v>
       </c>
       <c r="AG20" s="11" t="s">
@@ -4889,7 +5108,7 @@
       <c r="AE21" s="16">
         <v>2024</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AF21" s="16">
         <v>0</v>
       </c>
       <c r="AG21" s="11" t="s">
@@ -4977,7 +5196,7 @@
         <v>2023</v>
       </c>
       <c r="AE22" s="16"/>
-      <c r="AF22" s="11">
+      <c r="AF22" s="16">
         <v>0</v>
       </c>
       <c r="AG22" s="11" t="s">
@@ -5065,7 +5284,7 @@
         <v>2020</v>
       </c>
       <c r="AE23" s="16"/>
-      <c r="AF23" s="11">
+      <c r="AF23" s="16">
         <v>33</v>
       </c>
       <c r="AG23" s="11" t="s">
@@ -5153,7 +5372,7 @@
         <v>2023</v>
       </c>
       <c r="AE24" s="16"/>
-      <c r="AF24" s="11">
+      <c r="AF24" s="16">
         <v>0</v>
       </c>
       <c r="AG24" s="11" t="s">
@@ -5241,7 +5460,7 @@
         <v>2023</v>
       </c>
       <c r="AE25" s="16"/>
-      <c r="AF25" s="11">
+      <c r="AF25" s="16">
         <v>33</v>
       </c>
       <c r="AG25" s="11" t="s">
@@ -5316,6 +5535,9 @@
       <c r="X26" s="3">
         <v>3</v>
       </c>
+      <c r="Y26" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z26" s="2" t="s">
         <v>42</v>
       </c>
@@ -5326,7 +5548,7 @@
         <v>2023</v>
       </c>
       <c r="AE26" s="16"/>
-      <c r="AF26" s="11">
+      <c r="AF26" s="16">
         <v>33</v>
       </c>
       <c r="AG26" s="3" t="s">
@@ -5414,7 +5636,7 @@
         <v>2023</v>
       </c>
       <c r="AE27" s="16"/>
-      <c r="AF27" s="11">
+      <c r="AF27" s="16">
         <v>33</v>
       </c>
       <c r="AG27" s="11" t="s">
@@ -5502,7 +5724,7 @@
         <v>2023</v>
       </c>
       <c r="AE28" s="16"/>
-      <c r="AF28" s="11">
+      <c r="AF28" s="16">
         <v>33</v>
       </c>
       <c r="AG28" s="11" t="s">
@@ -5590,7 +5812,7 @@
         <v>2023</v>
       </c>
       <c r="AE29" s="16"/>
-      <c r="AF29" s="11">
+      <c r="AF29" s="16">
         <v>33</v>
       </c>
       <c r="AG29" s="11" t="s">
@@ -5680,7 +5902,7 @@
       <c r="AE30" s="16">
         <v>2024</v>
       </c>
-      <c r="AF30" s="11">
+      <c r="AF30" s="16">
         <v>33</v>
       </c>
       <c r="AG30" s="11" t="s">
@@ -5768,7 +5990,7 @@
         <v>2023</v>
       </c>
       <c r="AE31" s="16"/>
-      <c r="AF31" s="11">
+      <c r="AF31" s="16">
         <v>33</v>
       </c>
       <c r="AG31" s="11" t="s">
@@ -5856,7 +6078,7 @@
         <v>2023</v>
       </c>
       <c r="AE32" s="16"/>
-      <c r="AF32" s="11">
+      <c r="AF32" s="16">
         <v>33</v>
       </c>
       <c r="AG32" s="11" t="s">
@@ -5944,7 +6166,7 @@
         <v>2023</v>
       </c>
       <c r="AE33" s="16"/>
-      <c r="AF33" s="11">
+      <c r="AF33" s="16">
         <v>33</v>
       </c>
       <c r="AG33" s="11" t="s">
@@ -6032,7 +6254,7 @@
         <v>2023</v>
       </c>
       <c r="AE34" s="16"/>
-      <c r="AF34" s="11">
+      <c r="AF34" s="16">
         <v>33</v>
       </c>
       <c r="AG34" s="11" t="s">
@@ -6120,7 +6342,7 @@
         <v>2023</v>
       </c>
       <c r="AE35" s="16"/>
-      <c r="AF35" s="11">
+      <c r="AF35" s="16">
         <v>33</v>
       </c>
       <c r="AG35" s="11" t="s">
@@ -6208,7 +6430,7 @@
         <v>2023</v>
       </c>
       <c r="AE36" s="16"/>
-      <c r="AF36" s="11">
+      <c r="AF36" s="16">
         <v>33</v>
       </c>
       <c r="AG36" s="11" t="s">
@@ -6298,7 +6520,7 @@
       <c r="AE37" s="16">
         <v>2024</v>
       </c>
-      <c r="AF37" s="11">
+      <c r="AF37" s="16">
         <v>34</v>
       </c>
       <c r="AG37" s="11" t="s">
@@ -6388,7 +6610,7 @@
       <c r="AE38" s="16">
         <v>2024</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AF38" s="16">
         <v>34</v>
       </c>
       <c r="AG38" s="11" t="s">
@@ -6476,7 +6698,7 @@
         <v>2023</v>
       </c>
       <c r="AE39" s="16"/>
-      <c r="AF39" s="11">
+      <c r="AF39" s="16">
         <v>34</v>
       </c>
       <c r="AG39" s="11" t="s">
@@ -6566,7 +6788,7 @@
       <c r="AE40" s="16">
         <v>2024</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AF40" s="16">
         <v>34</v>
       </c>
       <c r="AG40" s="11" t="s">
@@ -6654,7 +6876,7 @@
         <v>2023</v>
       </c>
       <c r="AE41" s="16"/>
-      <c r="AF41" s="11">
+      <c r="AF41" s="16">
         <v>34</v>
       </c>
       <c r="AG41" s="11" t="s">
@@ -6744,7 +6966,7 @@
       <c r="AE42" s="16">
         <v>2024</v>
       </c>
-      <c r="AF42" s="11">
+      <c r="AF42" s="16">
         <v>0</v>
       </c>
       <c r="AG42" s="11" t="s">
@@ -6834,7 +7056,7 @@
       <c r="AE43" s="16">
         <v>2024</v>
       </c>
-      <c r="AF43" s="11">
+      <c r="AF43" s="16">
         <v>0</v>
       </c>
       <c r="AG43" s="11" t="s">
@@ -6924,7 +7146,7 @@
       <c r="AE44" s="16">
         <v>2024</v>
       </c>
-      <c r="AF44" s="11">
+      <c r="AF44" s="16">
         <v>0</v>
       </c>
       <c r="AG44" s="11" t="s">
@@ -7014,7 +7236,7 @@
       <c r="AE45" s="16">
         <v>2024</v>
       </c>
-      <c r="AF45" s="11">
+      <c r="AF45" s="16">
         <v>0</v>
       </c>
       <c r="AG45" s="11" t="s">
@@ -7104,7 +7326,7 @@
       <c r="AE46" s="16">
         <v>2024</v>
       </c>
-      <c r="AF46" s="11">
+      <c r="AF46" s="16">
         <v>34</v>
       </c>
       <c r="AG46" s="11" t="s">
@@ -7192,7 +7414,7 @@
         <v>2023</v>
       </c>
       <c r="AE47" s="16"/>
-      <c r="AF47" s="11">
+      <c r="AF47" s="16">
         <v>34</v>
       </c>
       <c r="AG47" s="11" t="s">
@@ -7282,7 +7504,7 @@
       <c r="AE48" s="16">
         <v>2024</v>
       </c>
-      <c r="AF48" s="11">
+      <c r="AF48" s="16">
         <v>34</v>
       </c>
       <c r="AG48" s="11" t="s">
@@ -7357,6 +7579,9 @@
       <c r="X49" s="3">
         <v>3</v>
       </c>
+      <c r="Y49" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z49" s="2" t="s">
         <v>42</v>
       </c>
@@ -7367,7 +7592,7 @@
         <v>2023</v>
       </c>
       <c r="AE49" s="16"/>
-      <c r="AF49" s="11">
+      <c r="AF49" s="16">
         <v>34</v>
       </c>
       <c r="AG49" s="3" t="s">
@@ -7455,7 +7680,7 @@
         <v>2024</v>
       </c>
       <c r="AE50" s="16"/>
-      <c r="AF50" s="11">
+      <c r="AF50" s="16">
         <v>34</v>
       </c>
       <c r="AG50" s="11" t="s">
@@ -7543,7 +7768,7 @@
         <v>2023</v>
       </c>
       <c r="AE51" s="16"/>
-      <c r="AF51" s="11">
+      <c r="AF51" s="16">
         <v>34</v>
       </c>
       <c r="AG51" s="11" t="s">
@@ -7631,7 +7856,7 @@
         <v>2023</v>
       </c>
       <c r="AE52" s="16"/>
-      <c r="AF52" s="11">
+      <c r="AF52" s="16">
         <v>34</v>
       </c>
       <c r="AG52" s="11" t="s">
@@ -7719,7 +7944,7 @@
         <v>2023</v>
       </c>
       <c r="AE53" s="16"/>
-      <c r="AF53" s="11">
+      <c r="AF53" s="16">
         <v>34</v>
       </c>
       <c r="AG53" s="11" t="s">
@@ -7809,7 +8034,7 @@
       <c r="AE54" s="16">
         <v>2024</v>
       </c>
-      <c r="AF54" s="11">
+      <c r="AF54" s="16">
         <v>35</v>
       </c>
       <c r="AG54" s="11" t="s">
@@ -7884,6 +8109,9 @@
       <c r="X55" s="3">
         <v>3</v>
       </c>
+      <c r="Y55" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z55" s="2" t="s">
         <v>42</v>
       </c>
@@ -7894,7 +8122,7 @@
         <v>2024</v>
       </c>
       <c r="AE55" s="16"/>
-      <c r="AF55" s="11">
+      <c r="AF55" s="16">
         <v>35</v>
       </c>
       <c r="AG55" s="3" t="s">
@@ -7969,6 +8197,9 @@
       <c r="X56" s="3">
         <v>4</v>
       </c>
+      <c r="Y56" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z56" s="2" t="s">
         <v>42</v>
       </c>
@@ -7979,7 +8210,7 @@
         <v>2024</v>
       </c>
       <c r="AE56" s="16"/>
-      <c r="AF56" s="11">
+      <c r="AF56" s="16">
         <v>35</v>
       </c>
       <c r="AG56" s="3" t="s">
@@ -8069,7 +8300,7 @@
       <c r="AE57" s="16">
         <v>2024</v>
       </c>
-      <c r="AF57" s="11">
+      <c r="AF57" s="16">
         <v>35</v>
       </c>
       <c r="AG57" s="11" t="s">
@@ -8157,7 +8388,7 @@
         <v>2024</v>
       </c>
       <c r="AE58" s="16"/>
-      <c r="AF58" s="11">
+      <c r="AF58" s="16">
         <v>35</v>
       </c>
       <c r="AG58" s="11" t="s">
@@ -8247,7 +8478,7 @@
       <c r="AE59" s="16">
         <v>2024</v>
       </c>
-      <c r="AF59" s="11">
+      <c r="AF59" s="16">
         <v>35</v>
       </c>
       <c r="AG59" s="11" t="s">
@@ -8335,7 +8566,7 @@
         <v>2024</v>
       </c>
       <c r="AE60" s="16"/>
-      <c r="AF60" s="11">
+      <c r="AF60" s="16">
         <v>35</v>
       </c>
       <c r="AG60" s="11" t="s">
@@ -8423,7 +8654,7 @@
         <v>2024</v>
       </c>
       <c r="AE61" s="16"/>
-      <c r="AF61" s="11">
+      <c r="AF61" s="16">
         <v>35</v>
       </c>
       <c r="AG61" s="11" t="s">
@@ -8511,7 +8742,7 @@
         <v>2024</v>
       </c>
       <c r="AE62" s="16"/>
-      <c r="AF62" s="11">
+      <c r="AF62" s="16">
         <v>36</v>
       </c>
       <c r="AG62" s="11" t="s">
@@ -8599,7 +8830,7 @@
         <v>2024</v>
       </c>
       <c r="AE63" s="16"/>
-      <c r="AF63" s="11">
+      <c r="AF63" s="16">
         <v>36</v>
       </c>
       <c r="AG63" s="11" t="s">
@@ -8687,7 +8918,7 @@
         <v>2024</v>
       </c>
       <c r="AE64" s="16"/>
-      <c r="AF64" s="11">
+      <c r="AF64" s="16">
         <v>36</v>
       </c>
       <c r="AG64" s="11" t="s">
@@ -8775,7 +9006,7 @@
         <v>2024</v>
       </c>
       <c r="AE65" s="16"/>
-      <c r="AF65" s="11">
+      <c r="AF65" s="16">
         <v>36</v>
       </c>
       <c r="AG65" s="11" t="s">
@@ -8863,7 +9094,7 @@
         <v>2024</v>
       </c>
       <c r="AE66" s="16"/>
-      <c r="AF66" s="11">
+      <c r="AF66" s="16">
         <v>36</v>
       </c>
       <c r="AG66" s="11" t="s">
@@ -8951,7 +9182,7 @@
         <v>2024</v>
       </c>
       <c r="AE67" s="16"/>
-      <c r="AF67" s="11">
+      <c r="AF67" s="16">
         <v>36</v>
       </c>
       <c r="AG67" s="11" t="s">
@@ -9039,7 +9270,7 @@
         <v>2024</v>
       </c>
       <c r="AE68" s="16"/>
-      <c r="AF68" s="11">
+      <c r="AF68" s="16">
         <v>36</v>
       </c>
       <c r="AG68" s="11" t="s">
@@ -9127,7 +9358,7 @@
         <v>2023</v>
       </c>
       <c r="AE69" s="16"/>
-      <c r="AF69" s="11">
+      <c r="AF69" s="16">
         <v>36</v>
       </c>
       <c r="AG69" s="11" t="s">
@@ -9217,7 +9448,7 @@
       <c r="AE70" s="16">
         <v>2024</v>
       </c>
-      <c r="AF70" s="11">
+      <c r="AF70" s="16">
         <v>36</v>
       </c>
       <c r="AG70" s="11" t="s">
@@ -9305,7 +9536,7 @@
         <v>2024</v>
       </c>
       <c r="AE71" s="16"/>
-      <c r="AF71" s="11">
+      <c r="AF71" s="16">
         <v>36</v>
       </c>
       <c r="AG71" s="11" t="s">
@@ -9393,7 +9624,7 @@
         <v>2024</v>
       </c>
       <c r="AE72" s="16"/>
-      <c r="AF72" s="11">
+      <c r="AF72" s="16">
         <v>0</v>
       </c>
       <c r="AG72" s="11" t="s">
@@ -9481,7 +9712,7 @@
         <v>2024</v>
       </c>
       <c r="AE73" s="16"/>
-      <c r="AF73" s="11">
+      <c r="AF73" s="16">
         <v>0</v>
       </c>
       <c r="AG73" s="11" t="s">
@@ -9571,7 +9802,7 @@
       <c r="AE74" s="16">
         <v>2024</v>
       </c>
-      <c r="AF74" s="11">
+      <c r="AF74" s="16">
         <v>0</v>
       </c>
       <c r="AG74" s="11" t="s">
@@ -9659,7 +9890,7 @@
         <v>2024</v>
       </c>
       <c r="AE75" s="16"/>
-      <c r="AF75" s="11">
+      <c r="AF75" s="16">
         <v>0</v>
       </c>
       <c r="AG75" s="11" t="s">
@@ -9749,7 +9980,7 @@
       <c r="AE76" s="16">
         <v>2024</v>
       </c>
-      <c r="AF76" s="11">
+      <c r="AF76" s="16">
         <v>0</v>
       </c>
       <c r="AG76" s="11" t="s">
@@ -9824,6 +10055,9 @@
       <c r="X77" s="3">
         <v>3</v>
       </c>
+      <c r="Y77" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z77" s="2" t="s">
         <v>42</v>
       </c>
@@ -9831,7 +10065,7 @@
         <v>2024</v>
       </c>
       <c r="AE77" s="16"/>
-      <c r="AF77" s="11">
+      <c r="AF77" s="16">
         <v>0</v>
       </c>
       <c r="AG77" s="3" t="s">
@@ -9906,6 +10140,9 @@
       <c r="X78" s="3">
         <v>3</v>
       </c>
+      <c r="Y78" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z78" s="2" t="s">
         <v>42</v>
       </c>
@@ -9913,7 +10150,7 @@
         <v>2023</v>
       </c>
       <c r="AE78" s="16"/>
-      <c r="AF78" s="11">
+      <c r="AF78" s="16">
         <v>0</v>
       </c>
       <c r="AG78" s="3" t="s">
@@ -10003,7 +10240,7 @@
       <c r="AE79" s="16">
         <v>2024</v>
       </c>
-      <c r="AF79" s="11">
+      <c r="AF79" s="16">
         <v>0</v>
       </c>
       <c r="AG79" s="11" t="s">
@@ -10093,7 +10330,7 @@
       <c r="AE80" s="16">
         <v>2024</v>
       </c>
-      <c r="AF80" s="11">
+      <c r="AF80" s="16">
         <v>0</v>
       </c>
       <c r="AG80" s="11" t="s">
@@ -10183,7 +10420,7 @@
       <c r="AE81" s="16">
         <v>2024</v>
       </c>
-      <c r="AF81" s="11">
+      <c r="AF81" s="16">
         <v>0</v>
       </c>
       <c r="AG81" s="11" t="s">
@@ -10273,7 +10510,7 @@
       <c r="AE82" s="16">
         <v>2024</v>
       </c>
-      <c r="AF82" s="11">
+      <c r="AF82" s="16">
         <v>0</v>
       </c>
       <c r="AG82" s="11" t="s">
@@ -10363,7 +10600,7 @@
       <c r="AE83" s="16">
         <v>2024</v>
       </c>
-      <c r="AF83" s="11">
+      <c r="AF83" s="16">
         <v>0</v>
       </c>
       <c r="AG83" s="11" t="s">
@@ -10453,7 +10690,7 @@
       <c r="AE84" s="16">
         <v>2024</v>
       </c>
-      <c r="AF84" s="11">
+      <c r="AF84" s="16">
         <v>0</v>
       </c>
       <c r="AG84" s="11" t="s">
@@ -10530,6 +10767,9 @@
       <c r="X85" s="3">
         <v>3</v>
       </c>
+      <c r="Y85" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z85" s="2" t="s">
         <v>42</v>
       </c>
@@ -10537,7 +10777,7 @@
         <v>2024</v>
       </c>
       <c r="AE85" s="16"/>
-      <c r="AF85" s="11">
+      <c r="AF85" s="16">
         <v>0</v>
       </c>
       <c r="AG85" s="3" t="s">
@@ -10614,6 +10854,9 @@
       <c r="X86" s="3">
         <v>3</v>
       </c>
+      <c r="Y86" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z86" s="2" t="s">
         <v>42</v>
       </c>
@@ -10621,7 +10864,7 @@
         <v>2024</v>
       </c>
       <c r="AE86" s="16"/>
-      <c r="AF86" s="11">
+      <c r="AF86" s="16">
         <v>0</v>
       </c>
       <c r="AG86" s="3" t="s">
@@ -10696,6 +10939,9 @@
       <c r="X87" s="3">
         <v>3</v>
       </c>
+      <c r="Y87" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z87" s="2" t="s">
         <v>42</v>
       </c>
@@ -10706,7 +10952,7 @@
         <v>2024</v>
       </c>
       <c r="AE87" s="16"/>
-      <c r="AF87" s="11">
+      <c r="AF87" s="16">
         <v>37</v>
       </c>
       <c r="AG87" s="3" t="s">
@@ -10781,6 +11027,9 @@
       <c r="X88" s="3">
         <v>3</v>
       </c>
+      <c r="Y88" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z88" s="2" t="s">
         <v>42</v>
       </c>
@@ -10791,7 +11040,7 @@
         <v>2024</v>
       </c>
       <c r="AE88" s="16"/>
-      <c r="AF88" s="11">
+      <c r="AF88" s="16">
         <v>38</v>
       </c>
       <c r="AG88" s="3" t="s">
@@ -10881,7 +11130,7 @@
       <c r="AE89" s="16">
         <v>2024</v>
       </c>
-      <c r="AF89" s="11">
+      <c r="AF89" s="16">
         <v>38</v>
       </c>
       <c r="AG89" s="11" t="s">
@@ -10971,7 +11220,7 @@
       <c r="AE90" s="16">
         <v>2024</v>
       </c>
-      <c r="AF90" s="11">
+      <c r="AF90" s="16">
         <v>38</v>
       </c>
       <c r="AG90" s="11" t="s">
@@ -11046,6 +11295,9 @@
       <c r="X91" s="3">
         <v>3</v>
       </c>
+      <c r="Y91" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z91" s="2" t="s">
         <v>42</v>
       </c>
@@ -11056,7 +11308,7 @@
         <v>2023</v>
       </c>
       <c r="AE91" s="16"/>
-      <c r="AF91" s="11">
+      <c r="AF91" s="16">
         <v>38</v>
       </c>
       <c r="AG91" s="3" t="s">
@@ -11146,7 +11398,7 @@
       <c r="AE92" s="16">
         <v>2024</v>
       </c>
-      <c r="AF92" s="11">
+      <c r="AF92" s="16">
         <v>38</v>
       </c>
       <c r="AG92" s="11" t="s">
@@ -11221,6 +11473,9 @@
       <c r="X93" s="3">
         <v>3</v>
       </c>
+      <c r="Y93" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z93" s="2" t="s">
         <v>42</v>
       </c>
@@ -11231,7 +11486,7 @@
         <v>2024</v>
       </c>
       <c r="AE93" s="16"/>
-      <c r="AF93" s="11">
+      <c r="AF93" s="16">
         <v>38</v>
       </c>
       <c r="AG93" s="3" t="s">
@@ -11306,6 +11561,9 @@
       <c r="X94" s="3">
         <v>3</v>
       </c>
+      <c r="Y94" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z94" s="2" t="s">
         <v>42</v>
       </c>
@@ -11316,7 +11574,7 @@
         <v>2024</v>
       </c>
       <c r="AE94" s="16"/>
-      <c r="AF94" s="11">
+      <c r="AF94" s="16">
         <v>38</v>
       </c>
       <c r="AG94" s="3" t="s">
@@ -11478,6 +11736,9 @@
       <c r="W96" s="7"/>
       <c r="X96" s="3">
         <v>3</v>
+      </c>
+      <c r="Y96" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="Z96" s="2" t="s">
         <v>42</v>
@@ -11559,6 +11820,9 @@
       <c r="X97" s="3">
         <v>3</v>
       </c>
+      <c r="Y97" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z97" s="2" t="s">
         <v>42</v>
       </c>
@@ -11639,6 +11903,9 @@
       <c r="X98" s="3">
         <v>3</v>
       </c>
+      <c r="Y98" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z98" s="2" t="s">
         <v>42</v>
       </c>
@@ -11719,6 +11986,9 @@
       <c r="X99" s="3">
         <v>3</v>
       </c>
+      <c r="Y99" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z99" s="2" t="s">
         <v>42</v>
       </c>
@@ -11802,6 +12072,9 @@
       <c r="X100" s="3">
         <v>3</v>
       </c>
+      <c r="Y100" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z100" s="2" t="s">
         <v>42</v>
       </c>
@@ -11812,7 +12085,9 @@
         <v>2024</v>
       </c>
       <c r="AE100" s="16"/>
-      <c r="AF100" s="16"/>
+      <c r="AF100" s="16">
+        <v>37</v>
+      </c>
       <c r="AG100" s="3" t="s">
         <v>134</v>
       </c>
@@ -11885,6 +12160,9 @@
       <c r="X101" s="3">
         <v>3</v>
       </c>
+      <c r="Y101" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z101" s="2" t="s">
         <v>42</v>
       </c>
@@ -11895,7 +12173,9 @@
         <v>2024</v>
       </c>
       <c r="AE101" s="16"/>
-      <c r="AF101" s="16"/>
+      <c r="AF101" s="16">
+        <v>40</v>
+      </c>
       <c r="AG101" s="3" t="s">
         <v>134</v>
       </c>
@@ -11968,6 +12248,9 @@
       <c r="X102" s="3">
         <v>3</v>
       </c>
+      <c r="Y102" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z102" s="2" t="s">
         <v>42</v>
       </c>
@@ -11978,7 +12261,9 @@
         <v>2024</v>
       </c>
       <c r="AE102" s="16"/>
-      <c r="AF102" s="16"/>
+      <c r="AF102" s="16">
+        <v>40</v>
+      </c>
       <c r="AG102" s="3" t="s">
         <v>134</v>
       </c>
@@ -12051,6 +12336,9 @@
       <c r="X103" s="3">
         <v>3</v>
       </c>
+      <c r="Y103" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z103" s="2" t="s">
         <v>42</v>
       </c>
@@ -12061,7 +12349,9 @@
         <v>2024</v>
       </c>
       <c r="AE103" s="16"/>
-      <c r="AF103" s="16"/>
+      <c r="AF103" s="16">
+        <v>37</v>
+      </c>
       <c r="AG103" s="3" t="s">
         <v>134</v>
       </c>
@@ -12134,6 +12424,9 @@
       <c r="X104" s="3">
         <v>3</v>
       </c>
+      <c r="Y104" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z104" s="2" t="s">
         <v>42</v>
       </c>
@@ -12144,7 +12437,9 @@
         <v>2024</v>
       </c>
       <c r="AE104" s="16"/>
-      <c r="AF104" s="16"/>
+      <c r="AF104" s="16">
+        <v>37</v>
+      </c>
       <c r="AG104" s="3" t="s">
         <v>134</v>
       </c>
@@ -12217,6 +12512,9 @@
       <c r="X105" s="3">
         <v>3</v>
       </c>
+      <c r="Y105" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z105" s="2" t="s">
         <v>42</v>
       </c>
@@ -12227,7 +12525,9 @@
         <v>2024</v>
       </c>
       <c r="AE105" s="16"/>
-      <c r="AF105" s="16"/>
+      <c r="AF105" s="16">
+        <v>37</v>
+      </c>
       <c r="AG105" s="3" t="s">
         <v>134</v>
       </c>
@@ -12300,6 +12600,9 @@
       <c r="X106" s="3">
         <v>3</v>
       </c>
+      <c r="Y106" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z106" s="2" t="s">
         <v>42</v>
       </c>
@@ -12310,7 +12613,9 @@
         <v>2024</v>
       </c>
       <c r="AE106" s="16"/>
-      <c r="AF106" s="16"/>
+      <c r="AF106" s="16">
+        <v>37</v>
+      </c>
       <c r="AG106" s="3" t="s">
         <v>134</v>
       </c>
@@ -12383,6 +12688,9 @@
       <c r="X107" s="3">
         <v>3</v>
       </c>
+      <c r="Y107" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z107" s="2" t="s">
         <v>42</v>
       </c>
@@ -12393,7 +12701,9 @@
         <v>2024</v>
       </c>
       <c r="AE107" s="16"/>
-      <c r="AF107" s="16"/>
+      <c r="AF107" s="16">
+        <v>37</v>
+      </c>
       <c r="AG107" s="3" t="s">
         <v>134</v>
       </c>
@@ -12466,6 +12776,9 @@
       <c r="X108" s="3">
         <v>2</v>
       </c>
+      <c r="Y108" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z108" s="2" t="s">
         <v>42</v>
       </c>
@@ -12476,7 +12789,9 @@
         <v>2024</v>
       </c>
       <c r="AE108" s="16"/>
-      <c r="AF108" s="16"/>
+      <c r="AF108" s="16">
+        <v>37</v>
+      </c>
       <c r="AG108" s="3" t="s">
         <v>134</v>
       </c>
@@ -12549,6 +12864,9 @@
       <c r="X109" s="3">
         <v>4</v>
       </c>
+      <c r="Y109" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z109" s="2" t="s">
         <v>42</v>
       </c>
@@ -12559,7 +12877,9 @@
         <v>2024</v>
       </c>
       <c r="AE109" s="16"/>
-      <c r="AF109" s="16"/>
+      <c r="AF109" s="16">
+        <v>37</v>
+      </c>
       <c r="AG109" s="3" t="s">
         <v>134</v>
       </c>
@@ -12632,6 +12952,9 @@
       <c r="X110" s="3">
         <v>4</v>
       </c>
+      <c r="Y110" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z110" s="2" t="s">
         <v>42</v>
       </c>
@@ -12642,7 +12965,9 @@
         <v>2023</v>
       </c>
       <c r="AE110" s="16"/>
-      <c r="AF110" s="16"/>
+      <c r="AF110" s="16">
+        <v>38</v>
+      </c>
       <c r="AG110" s="3" t="s">
         <v>134</v>
       </c>
@@ -12715,6 +13040,9 @@
       <c r="X111" s="3">
         <v>3</v>
       </c>
+      <c r="Y111" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z111" s="2" t="s">
         <v>42</v>
       </c>
@@ -12725,7 +13053,9 @@
         <v>2019</v>
       </c>
       <c r="AE111" s="16"/>
-      <c r="AF111" s="16"/>
+      <c r="AF111" s="16">
+        <v>37</v>
+      </c>
       <c r="AG111" s="3" t="s">
         <v>134</v>
       </c>
@@ -12798,6 +13128,9 @@
       <c r="X112" s="3">
         <v>2</v>
       </c>
+      <c r="Y112" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z112" s="2" t="s">
         <v>42</v>
       </c>
@@ -12808,7 +13141,9 @@
         <v>2024</v>
       </c>
       <c r="AE112" s="16"/>
-      <c r="AF112" s="16"/>
+      <c r="AF112" s="16">
+        <v>37</v>
+      </c>
       <c r="AG112" s="3" t="s">
         <v>134</v>
       </c>
@@ -12881,6 +13216,9 @@
       <c r="X113" s="3">
         <v>2</v>
       </c>
+      <c r="Y113" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z113" s="2" t="s">
         <v>42</v>
       </c>
@@ -12891,7 +13229,9 @@
         <v>2024</v>
       </c>
       <c r="AE113" s="16"/>
-      <c r="AF113" s="16"/>
+      <c r="AF113" s="16">
+        <v>37</v>
+      </c>
       <c r="AG113" s="3" t="s">
         <v>134</v>
       </c>
@@ -12963,6 +13303,9 @@
       <c r="W114" s="7"/>
       <c r="X114" s="3">
         <v>3</v>
+      </c>
+      <c r="Y114" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="Z114" s="2" t="s">
         <v>42</v>
@@ -13047,6 +13390,9 @@
       <c r="X115" s="3">
         <v>2</v>
       </c>
+      <c r="Y115" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z115" s="2" t="s">
         <v>42</v>
       </c>
@@ -13057,7 +13403,9 @@
         <v>2022</v>
       </c>
       <c r="AE115" s="16"/>
-      <c r="AF115" s="16"/>
+      <c r="AF115" s="16">
+        <v>37</v>
+      </c>
       <c r="AG115" s="3" t="s">
         <v>134</v>
       </c>
@@ -13129,6 +13477,9 @@
       <c r="W116" s="7"/>
       <c r="X116" s="3">
         <v>3</v>
+      </c>
+      <c r="Y116" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="Z116" s="2" t="s">
         <v>42</v>
@@ -13213,6 +13564,9 @@
       <c r="X117" s="3">
         <v>3</v>
       </c>
+      <c r="Y117" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z117" s="2" t="s">
         <v>42</v>
       </c>
@@ -13382,6 +13736,9 @@
       <c r="X119" s="3">
         <v>2</v>
       </c>
+      <c r="Y119" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z119" s="2" t="s">
         <v>42</v>
       </c>
@@ -13392,7 +13749,9 @@
         <v>2019</v>
       </c>
       <c r="AE119" s="16"/>
-      <c r="AF119" s="16"/>
+      <c r="AF119" s="16">
+        <v>38</v>
+      </c>
       <c r="AG119" s="3" t="s">
         <v>134</v>
       </c>
@@ -13464,6 +13823,9 @@
       <c r="W120" s="7"/>
       <c r="X120" s="3">
         <v>3</v>
+      </c>
+      <c r="Y120" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="Z120" s="2" t="s">
         <v>42</v>
@@ -13548,6 +13910,9 @@
       <c r="X121" s="3">
         <v>2</v>
       </c>
+      <c r="Y121" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z121" s="2" t="s">
         <v>42</v>
       </c>
@@ -13558,7 +13923,9 @@
         <v>2023</v>
       </c>
       <c r="AE121" s="16"/>
-      <c r="AF121" s="16"/>
+      <c r="AF121" s="16">
+        <v>38</v>
+      </c>
       <c r="AG121" s="3" t="s">
         <v>134</v>
       </c>
@@ -13630,6 +13997,9 @@
       <c r="W122" s="7"/>
       <c r="X122" s="3">
         <v>3</v>
+      </c>
+      <c r="Y122" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="Z122" s="2" t="s">
         <v>42</v>
@@ -13714,6 +14084,9 @@
       <c r="X123" s="3">
         <v>3</v>
       </c>
+      <c r="Y123" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z123" s="2" t="s">
         <v>42</v>
       </c>
@@ -13724,7 +14097,9 @@
         <v>2023</v>
       </c>
       <c r="AE123" s="16"/>
-      <c r="AF123" s="16"/>
+      <c r="AF123" s="16">
+        <v>38</v>
+      </c>
       <c r="AG123" s="3" t="s">
         <v>134</v>
       </c>
@@ -13797,6 +14172,9 @@
       <c r="X124" s="3">
         <v>3</v>
       </c>
+      <c r="Y124" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z124" s="2" t="s">
         <v>42</v>
       </c>
@@ -13807,7 +14185,9 @@
         <v>2023</v>
       </c>
       <c r="AE124" s="16"/>
-      <c r="AF124" s="16"/>
+      <c r="AF124" s="16">
+        <v>38</v>
+      </c>
       <c r="AG124" s="3" t="s">
         <v>134</v>
       </c>
@@ -13879,6 +14259,9 @@
       <c r="W125" s="7"/>
       <c r="X125" s="3">
         <v>3</v>
+      </c>
+      <c r="Y125" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="Z125" s="2" t="s">
         <v>42</v>
@@ -13963,6 +14346,9 @@
       <c r="X126" s="3">
         <v>3</v>
       </c>
+      <c r="Y126" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z126" s="2" t="s">
         <v>42</v>
       </c>
@@ -13973,7 +14359,9 @@
         <v>2024</v>
       </c>
       <c r="AE126" s="16"/>
-      <c r="AF126" s="16"/>
+      <c r="AF126" s="16">
+        <v>38</v>
+      </c>
       <c r="AG126" s="3" t="s">
         <v>134</v>
       </c>
@@ -14046,6 +14434,9 @@
       <c r="X127" s="3">
         <v>3</v>
       </c>
+      <c r="Y127" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z127" s="2" t="s">
         <v>42</v>
       </c>
@@ -14056,7 +14447,9 @@
         <v>2023</v>
       </c>
       <c r="AE127" s="16"/>
-      <c r="AF127" s="16"/>
+      <c r="AF127" s="16">
+        <v>38</v>
+      </c>
       <c r="AG127" s="3" t="s">
         <v>134</v>
       </c>
@@ -14131,6 +14524,9 @@
       <c r="X128" s="3">
         <v>3</v>
       </c>
+      <c r="Y128" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z128" s="2" t="s">
         <v>42</v>
       </c>
@@ -14141,7 +14537,9 @@
         <v>2024</v>
       </c>
       <c r="AE128" s="16"/>
-      <c r="AF128" s="16"/>
+      <c r="AF128" s="16">
+        <v>38</v>
+      </c>
       <c r="AG128" s="3" t="s">
         <v>134</v>
       </c>
@@ -14216,6 +14614,9 @@
       <c r="X129" s="3">
         <v>3</v>
       </c>
+      <c r="Y129" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z129" s="2" t="s">
         <v>42</v>
       </c>
@@ -14226,7 +14627,9 @@
         <v>2024</v>
       </c>
       <c r="AE129" s="16"/>
-      <c r="AF129" s="16"/>
+      <c r="AF129" s="16">
+        <v>38</v>
+      </c>
       <c r="AG129" s="3" t="s">
         <v>134</v>
       </c>
@@ -14298,6 +14701,9 @@
       <c r="W130" s="7"/>
       <c r="X130" s="3">
         <v>3</v>
+      </c>
+      <c r="Y130" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="Z130" s="2" t="s">
         <v>42</v>
@@ -14379,6 +14785,9 @@
       <c r="X131" s="3">
         <v>3</v>
       </c>
+      <c r="Y131" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z131" s="2" t="s">
         <v>42</v>
       </c>
@@ -14389,7 +14798,9 @@
         <v>2023</v>
       </c>
       <c r="AE131" s="16"/>
-      <c r="AF131" s="16"/>
+      <c r="AF131" s="16">
+        <v>38</v>
+      </c>
       <c r="AG131" s="3" t="s">
         <v>134</v>
       </c>
@@ -14462,6 +14873,9 @@
       <c r="X132" s="3">
         <v>3</v>
       </c>
+      <c r="Y132" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z132" s="2" t="s">
         <v>42</v>
       </c>
@@ -14472,7 +14886,9 @@
         <v>2023</v>
       </c>
       <c r="AE132" s="16"/>
-      <c r="AF132" s="16"/>
+      <c r="AF132" s="16">
+        <v>38</v>
+      </c>
       <c r="AG132" s="3" t="s">
         <v>134</v>
       </c>
@@ -14545,6 +14961,9 @@
       <c r="X133" s="3">
         <v>3</v>
       </c>
+      <c r="Y133" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z133" s="2" t="s">
         <v>42</v>
       </c>
@@ -14552,7 +14971,9 @@
         <v>2024</v>
       </c>
       <c r="AE133" s="16"/>
-      <c r="AF133" s="16"/>
+      <c r="AF133" s="16">
+        <v>39</v>
+      </c>
       <c r="AG133" s="3" t="s">
         <v>134</v>
       </c>
@@ -14625,6 +15046,9 @@
       <c r="X134" s="3">
         <v>3</v>
       </c>
+      <c r="Y134" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z134" s="2" t="s">
         <v>42</v>
       </c>
@@ -14632,7 +15056,9 @@
         <v>2024</v>
       </c>
       <c r="AE134" s="16"/>
-      <c r="AF134" s="16"/>
+      <c r="AF134" s="16">
+        <v>39</v>
+      </c>
       <c r="AG134" s="3" t="s">
         <v>134</v>
       </c>
@@ -14705,6 +15131,9 @@
       <c r="X135" s="3">
         <v>3</v>
       </c>
+      <c r="Y135" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z135" s="2" t="s">
         <v>42</v>
       </c>
@@ -14712,7 +15141,9 @@
         <v>2024</v>
       </c>
       <c r="AE135" s="16"/>
-      <c r="AF135" s="16"/>
+      <c r="AF135" s="16">
+        <v>39</v>
+      </c>
       <c r="AG135" s="3" t="s">
         <v>134</v>
       </c>
@@ -14785,6 +15216,9 @@
       <c r="X136" s="3">
         <v>2</v>
       </c>
+      <c r="Y136" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z136" s="2" t="s">
         <v>42</v>
       </c>
@@ -14792,7 +15226,9 @@
         <v>2024</v>
       </c>
       <c r="AE136" s="16"/>
-      <c r="AF136" s="16"/>
+      <c r="AF136" s="16">
+        <v>39</v>
+      </c>
       <c r="AG136" s="3" t="s">
         <v>134</v>
       </c>
@@ -14865,6 +15301,9 @@
       <c r="X137" s="3">
         <v>2</v>
       </c>
+      <c r="Y137" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z137" s="2" t="s">
         <v>42</v>
       </c>
@@ -14872,7 +15311,9 @@
         <v>2024</v>
       </c>
       <c r="AE137" s="16"/>
-      <c r="AF137" s="16"/>
+      <c r="AF137" s="16">
+        <v>39</v>
+      </c>
       <c r="AG137" s="3" t="s">
         <v>134</v>
       </c>
@@ -14945,6 +15386,9 @@
       <c r="X138" s="3">
         <v>2</v>
       </c>
+      <c r="Y138" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z138" s="2" t="s">
         <v>42</v>
       </c>
@@ -14952,7 +15396,9 @@
         <v>2024</v>
       </c>
       <c r="AE138" s="16"/>
-      <c r="AF138" s="16"/>
+      <c r="AF138" s="16">
+        <v>39</v>
+      </c>
       <c r="AG138" s="3" t="s">
         <v>134</v>
       </c>
@@ -15025,6 +15471,9 @@
       <c r="X139" s="3">
         <v>2</v>
       </c>
+      <c r="Y139" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z139" s="2" t="s">
         <v>42</v>
       </c>
@@ -15032,7 +15481,9 @@
         <v>2024</v>
       </c>
       <c r="AE139" s="16"/>
-      <c r="AF139" s="16"/>
+      <c r="AF139" s="16">
+        <v>39</v>
+      </c>
       <c r="AG139" s="3" t="s">
         <v>134</v>
       </c>
@@ -15105,6 +15556,9 @@
       <c r="X140" s="3">
         <v>3</v>
       </c>
+      <c r="Y140" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z140" s="2" t="s">
         <v>42</v>
       </c>
@@ -15112,7 +15566,9 @@
         <v>2024</v>
       </c>
       <c r="AE140" s="16"/>
-      <c r="AF140" s="16"/>
+      <c r="AF140" s="16">
+        <v>39</v>
+      </c>
       <c r="AG140" s="3" t="s">
         <v>134</v>
       </c>
@@ -15185,6 +15641,9 @@
       <c r="X141" s="3">
         <v>4</v>
       </c>
+      <c r="Y141" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z141" s="2" t="s">
         <v>42</v>
       </c>
@@ -15192,7 +15651,9 @@
         <v>2024</v>
       </c>
       <c r="AE141" s="16"/>
-      <c r="AF141" s="16"/>
+      <c r="AF141" s="16">
+        <v>39</v>
+      </c>
       <c r="AG141" s="3" t="s">
         <v>134</v>
       </c>
@@ -15265,6 +15726,9 @@
       <c r="X142" s="3">
         <v>3</v>
       </c>
+      <c r="Y142" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z142" s="2" t="s">
         <v>42</v>
       </c>
@@ -15272,7 +15736,9 @@
         <v>2024</v>
       </c>
       <c r="AE142" s="16"/>
-      <c r="AF142" s="16"/>
+      <c r="AF142" s="16">
+        <v>39</v>
+      </c>
       <c r="AG142" s="3" t="s">
         <v>134</v>
       </c>
@@ -15345,6 +15811,9 @@
       <c r="X143" s="3">
         <v>3</v>
       </c>
+      <c r="Y143" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z143" s="2" t="s">
         <v>42</v>
       </c>
@@ -15352,7 +15821,9 @@
         <v>2024</v>
       </c>
       <c r="AE143" s="16"/>
-      <c r="AF143" s="16"/>
+      <c r="AF143" s="16">
+        <v>39</v>
+      </c>
       <c r="AG143" s="3" t="s">
         <v>134</v>
       </c>
@@ -15425,6 +15896,9 @@
       <c r="X144" s="3">
         <v>3</v>
       </c>
+      <c r="Y144" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z144" s="2" t="s">
         <v>42</v>
       </c>
@@ -15432,7 +15906,9 @@
         <v>2024</v>
       </c>
       <c r="AE144" s="16"/>
-      <c r="AF144" s="16"/>
+      <c r="AF144" s="16">
+        <v>39</v>
+      </c>
       <c r="AG144" s="3" t="s">
         <v>134</v>
       </c>
@@ -15505,6 +15981,9 @@
       <c r="X145" s="3">
         <v>3</v>
       </c>
+      <c r="Y145" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z145" s="2" t="s">
         <v>42</v>
       </c>
@@ -15512,7 +15991,9 @@
         <v>2024</v>
       </c>
       <c r="AE145" s="16"/>
-      <c r="AF145" s="16"/>
+      <c r="AF145" s="16">
+        <v>39</v>
+      </c>
       <c r="AG145" s="3" t="s">
         <v>134</v>
       </c>
@@ -15585,6 +16066,9 @@
       <c r="X146" s="3">
         <v>3</v>
       </c>
+      <c r="Y146" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z146" s="2" t="s">
         <v>42</v>
       </c>
@@ -15592,7 +16076,9 @@
         <v>2024</v>
       </c>
       <c r="AE146" s="16"/>
-      <c r="AF146" s="16"/>
+      <c r="AF146" s="16">
+        <v>39</v>
+      </c>
       <c r="AG146" s="3" t="s">
         <v>134</v>
       </c>
@@ -15667,6 +16153,9 @@
       <c r="X147" s="3">
         <v>3</v>
       </c>
+      <c r="Y147" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z147" s="2" t="s">
         <v>42</v>
       </c>
@@ -15674,7 +16163,9 @@
         <v>2024</v>
       </c>
       <c r="AE147" s="16"/>
-      <c r="AF147" s="16"/>
+      <c r="AF147" s="16">
+        <v>39</v>
+      </c>
       <c r="AG147" s="3" t="s">
         <v>134</v>
       </c>
@@ -15749,6 +16240,9 @@
       <c r="X148" s="3">
         <v>3</v>
       </c>
+      <c r="Y148" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z148" s="2" t="s">
         <v>42</v>
       </c>
@@ -15756,7 +16250,9 @@
         <v>2024</v>
       </c>
       <c r="AE148" s="16"/>
-      <c r="AF148" s="16"/>
+      <c r="AF148" s="16">
+        <v>39</v>
+      </c>
       <c r="AG148" s="3" t="s">
         <v>134</v>
       </c>
@@ -15829,6 +16325,9 @@
       <c r="X149" s="3">
         <v>3</v>
       </c>
+      <c r="Y149" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z149" s="2" t="s">
         <v>42</v>
       </c>
@@ -15836,7 +16335,9 @@
         <v>2023</v>
       </c>
       <c r="AE149" s="16"/>
-      <c r="AF149" s="16"/>
+      <c r="AF149" s="16">
+        <v>40</v>
+      </c>
       <c r="AG149" s="3" t="s">
         <v>134</v>
       </c>
@@ -15909,6 +16410,9 @@
       <c r="X150" s="3">
         <v>3</v>
       </c>
+      <c r="Y150" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z150" s="2" t="s">
         <v>42</v>
       </c>
@@ -15916,7 +16420,9 @@
         <v>2024</v>
       </c>
       <c r="AE150" s="16"/>
-      <c r="AF150" s="16"/>
+      <c r="AF150" s="16">
+        <v>40</v>
+      </c>
       <c r="AG150" s="3" t="s">
         <v>134</v>
       </c>
@@ -15989,6 +16495,9 @@
       <c r="X151" s="3">
         <v>3</v>
       </c>
+      <c r="Y151" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z151" s="2" t="s">
         <v>42</v>
       </c>
@@ -15996,7 +16505,9 @@
         <v>2024</v>
       </c>
       <c r="AE151" s="16"/>
-      <c r="AF151" s="16"/>
+      <c r="AF151" s="16">
+        <v>40</v>
+      </c>
       <c r="AG151" s="3" t="s">
         <v>134</v>
       </c>
@@ -16071,6 +16582,9 @@
       <c r="X152" s="3">
         <v>2</v>
       </c>
+      <c r="Y152" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z152" s="2" t="s">
         <v>42</v>
       </c>
@@ -16078,7 +16592,9 @@
         <v>2024</v>
       </c>
       <c r="AE152" s="16"/>
-      <c r="AF152" s="16"/>
+      <c r="AF152" s="16">
+        <v>40</v>
+      </c>
       <c r="AG152" s="3" t="s">
         <v>134</v>
       </c>
@@ -16151,6 +16667,9 @@
       <c r="X153" s="3">
         <v>3</v>
       </c>
+      <c r="Y153" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z153" s="2" t="s">
         <v>42</v>
       </c>
@@ -16158,7 +16677,9 @@
         <v>2024</v>
       </c>
       <c r="AE153" s="16"/>
-      <c r="AF153" s="16"/>
+      <c r="AF153" s="16">
+        <v>40</v>
+      </c>
       <c r="AG153" s="3" t="s">
         <v>134</v>
       </c>
@@ -16231,6 +16752,9 @@
       <c r="X154" s="3">
         <v>3</v>
       </c>
+      <c r="Y154" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z154" s="2" t="s">
         <v>42</v>
       </c>
@@ -16238,7 +16762,9 @@
         <v>2024</v>
       </c>
       <c r="AE154" s="16"/>
-      <c r="AF154" s="16"/>
+      <c r="AF154" s="16">
+        <v>40</v>
+      </c>
       <c r="AG154" s="3" t="s">
         <v>134</v>
       </c>
@@ -16311,6 +16837,9 @@
       <c r="X155" s="3">
         <v>3</v>
       </c>
+      <c r="Y155" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z155" s="2" t="s">
         <v>42</v>
       </c>
@@ -16318,7 +16847,9 @@
         <v>2024</v>
       </c>
       <c r="AE155" s="16"/>
-      <c r="AF155" s="16"/>
+      <c r="AF155" s="16">
+        <v>40</v>
+      </c>
       <c r="AG155" s="3" t="s">
         <v>134</v>
       </c>
@@ -16391,6 +16922,9 @@
       <c r="X156" s="3">
         <v>3</v>
       </c>
+      <c r="Y156" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z156" s="2" t="s">
         <v>42</v>
       </c>
@@ -16398,7 +16932,9 @@
         <v>2024</v>
       </c>
       <c r="AE156" s="16"/>
-      <c r="AF156" s="16"/>
+      <c r="AF156" s="16">
+        <v>40</v>
+      </c>
       <c r="AG156" s="3" t="s">
         <v>134</v>
       </c>
@@ -16471,6 +17007,9 @@
       <c r="X157" s="3">
         <v>3</v>
       </c>
+      <c r="Y157" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z157" s="2" t="s">
         <v>42</v>
       </c>
@@ -16478,7 +17017,9 @@
         <v>2024</v>
       </c>
       <c r="AE157" s="16"/>
-      <c r="AF157" s="16"/>
+      <c r="AF157" s="16">
+        <v>40</v>
+      </c>
       <c r="AG157" s="3" t="s">
         <v>134</v>
       </c>
@@ -16551,6 +17092,9 @@
       <c r="X158" s="3">
         <v>3</v>
       </c>
+      <c r="Y158" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z158" s="2" t="s">
         <v>42</v>
       </c>
@@ -16558,7 +17102,9 @@
         <v>2024</v>
       </c>
       <c r="AE158" s="16"/>
-      <c r="AF158" s="16"/>
+      <c r="AF158" s="16">
+        <v>40</v>
+      </c>
       <c r="AG158" s="3" t="s">
         <v>134</v>
       </c>
@@ -16631,6 +17177,9 @@
       <c r="X159" s="3">
         <v>3</v>
       </c>
+      <c r="Y159" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z159" s="2" t="s">
         <v>42</v>
       </c>
@@ -16638,7 +17187,9 @@
         <v>2024</v>
       </c>
       <c r="AE159" s="16"/>
-      <c r="AF159" s="16"/>
+      <c r="AF159" s="16">
+        <v>40</v>
+      </c>
       <c r="AG159" s="3" t="s">
         <v>134</v>
       </c>
@@ -16711,6 +17262,9 @@
       <c r="X160" s="3">
         <v>3</v>
       </c>
+      <c r="Y160" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z160" s="2" t="s">
         <v>42</v>
       </c>
@@ -16718,7 +17272,9 @@
         <v>2024</v>
       </c>
       <c r="AE160" s="16"/>
-      <c r="AF160" s="16"/>
+      <c r="AF160" s="16">
+        <v>40</v>
+      </c>
       <c r="AG160" s="3" t="s">
         <v>134</v>
       </c>
@@ -16791,6 +17347,9 @@
       <c r="X161" s="3">
         <v>3</v>
       </c>
+      <c r="Y161" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z161" s="2" t="s">
         <v>42</v>
       </c>
@@ -16798,7 +17357,9 @@
         <v>2024</v>
       </c>
       <c r="AE161" s="16"/>
-      <c r="AF161" s="16"/>
+      <c r="AF161" s="16" t="s">
+        <v>771</v>
+      </c>
       <c r="AG161" s="3" t="s">
         <v>134</v>
       </c>
@@ -16871,6 +17432,9 @@
       <c r="X162" s="3">
         <v>3</v>
       </c>
+      <c r="Y162" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z162" s="2" t="s">
         <v>42</v>
       </c>
@@ -16878,7 +17442,9 @@
         <v>2024</v>
       </c>
       <c r="AE162" s="16"/>
-      <c r="AF162" s="16"/>
+      <c r="AF162" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG162" s="3" t="s">
         <v>134</v>
       </c>
@@ -16951,6 +17517,9 @@
       <c r="X163" s="3">
         <v>3</v>
       </c>
+      <c r="Y163" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z163" s="2" t="s">
         <v>42</v>
       </c>
@@ -16958,7 +17527,9 @@
         <v>2023</v>
       </c>
       <c r="AE163" s="16"/>
-      <c r="AF163" s="16"/>
+      <c r="AF163" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG163" s="3" t="s">
         <v>134</v>
       </c>
@@ -17031,6 +17602,9 @@
       <c r="X164" s="3">
         <v>3</v>
       </c>
+      <c r="Y164" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z164" s="2" t="s">
         <v>42</v>
       </c>
@@ -17038,7 +17612,9 @@
         <v>2022</v>
       </c>
       <c r="AE164" s="16"/>
-      <c r="AF164" s="16"/>
+      <c r="AF164" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG164" s="3" t="s">
         <v>134</v>
       </c>
@@ -17113,6 +17689,9 @@
       <c r="X165" s="3">
         <v>3</v>
       </c>
+      <c r="Y165" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z165" s="2" t="s">
         <v>42</v>
       </c>
@@ -17120,7 +17699,9 @@
         <v>2024</v>
       </c>
       <c r="AE165" s="16"/>
-      <c r="AF165" s="16"/>
+      <c r="AF165" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG165" s="3" t="s">
         <v>134</v>
       </c>
@@ -17195,6 +17776,9 @@
       <c r="X166" s="3">
         <v>3</v>
       </c>
+      <c r="Y166" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z166" s="2" t="s">
         <v>42</v>
       </c>
@@ -17202,7 +17786,9 @@
         <v>2024</v>
       </c>
       <c r="AE166" s="16"/>
-      <c r="AF166" s="16"/>
+      <c r="AF166" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG166" s="3" t="s">
         <v>134</v>
       </c>
@@ -17275,6 +17861,9 @@
       <c r="X167" s="3">
         <v>3</v>
       </c>
+      <c r="Y167" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z167" s="2" t="s">
         <v>42</v>
       </c>
@@ -17282,7 +17871,9 @@
         <v>2024</v>
       </c>
       <c r="AE167" s="16"/>
-      <c r="AF167" s="16"/>
+      <c r="AF167" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG167" s="3" t="s">
         <v>134</v>
       </c>
@@ -17355,6 +17946,9 @@
       <c r="X168" s="3">
         <v>3</v>
       </c>
+      <c r="Y168" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z168" s="2" t="s">
         <v>42</v>
       </c>
@@ -17362,7 +17956,9 @@
         <v>2024</v>
       </c>
       <c r="AE168" s="16"/>
-      <c r="AF168" s="16"/>
+      <c r="AF168" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG168" s="3" t="s">
         <v>134</v>
       </c>
@@ -17437,6 +18033,9 @@
       <c r="X169" s="3">
         <v>2</v>
       </c>
+      <c r="Y169" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z169" s="2" t="s">
         <v>42</v>
       </c>
@@ -17444,7 +18043,9 @@
         <v>2023</v>
       </c>
       <c r="AE169" s="16"/>
-      <c r="AF169" s="16"/>
+      <c r="AF169" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG169" s="3" t="s">
         <v>134</v>
       </c>
@@ -17517,6 +18118,9 @@
       <c r="X170" s="3">
         <v>3</v>
       </c>
+      <c r="Y170" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z170" s="2" t="s">
         <v>42</v>
       </c>
@@ -17524,7 +18128,9 @@
         <v>2024</v>
       </c>
       <c r="AE170" s="16"/>
-      <c r="AF170" s="16"/>
+      <c r="AF170" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG170" s="3" t="s">
         <v>134</v>
       </c>
@@ -17597,6 +18203,9 @@
       <c r="X171" s="3">
         <v>3</v>
       </c>
+      <c r="Y171" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z171" s="2" t="s">
         <v>42</v>
       </c>
@@ -17604,7 +18213,9 @@
         <v>2019</v>
       </c>
       <c r="AE171" s="16"/>
-      <c r="AF171" s="16"/>
+      <c r="AF171" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG171" s="3" t="s">
         <v>134</v>
       </c>
@@ -17677,6 +18288,9 @@
       <c r="X172" s="3">
         <v>3</v>
       </c>
+      <c r="Y172" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z172" s="2" t="s">
         <v>42</v>
       </c>
@@ -17684,7 +18298,9 @@
         <v>2024</v>
       </c>
       <c r="AE172" s="16"/>
-      <c r="AF172" s="16"/>
+      <c r="AF172" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG172" s="3" t="s">
         <v>134</v>
       </c>
@@ -17757,6 +18373,9 @@
       <c r="X173" s="3">
         <v>3</v>
       </c>
+      <c r="Y173" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z173" s="2" t="s">
         <v>42</v>
       </c>
@@ -17764,7 +18383,9 @@
         <v>2016</v>
       </c>
       <c r="AE173" s="16"/>
-      <c r="AF173" s="16"/>
+      <c r="AF173" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG173" s="3" t="s">
         <v>134</v>
       </c>
@@ -17837,6 +18458,9 @@
       <c r="X174" s="3">
         <v>3</v>
       </c>
+      <c r="Y174" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z174" s="2" t="s">
         <v>42</v>
       </c>
@@ -17844,7 +18468,9 @@
         <v>2024</v>
       </c>
       <c r="AE174" s="16"/>
-      <c r="AF174" s="16"/>
+      <c r="AF174" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG174" s="3" t="s">
         <v>134</v>
       </c>
@@ -17919,6 +18545,9 @@
       <c r="X175" s="3">
         <v>3</v>
       </c>
+      <c r="Y175" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z175" s="2" t="s">
         <v>42</v>
       </c>
@@ -17926,7 +18555,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AE175" s="16"/>
-      <c r="AF175" s="16"/>
+      <c r="AF175" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG175" s="3" t="s">
         <v>134</v>
       </c>
@@ -17999,6 +18630,9 @@
       <c r="X176" s="3">
         <v>3</v>
       </c>
+      <c r="Y176" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z176" s="2" t="s">
         <v>42</v>
       </c>
@@ -18006,7 +18640,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AE176" s="16"/>
-      <c r="AF176" s="16"/>
+      <c r="AF176" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG176" s="3" t="s">
         <v>134</v>
       </c>
@@ -18081,6 +18717,9 @@
       <c r="X177" s="3">
         <v>3</v>
       </c>
+      <c r="Y177" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z177" s="2" t="s">
         <v>42</v>
       </c>
@@ -18088,7 +18727,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AE177" s="16"/>
-      <c r="AF177" s="16"/>
+      <c r="AF177" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG177" s="3" t="s">
         <v>134</v>
       </c>
@@ -18163,6 +18804,9 @@
       <c r="X178" s="3">
         <v>3</v>
       </c>
+      <c r="Y178" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z178" s="2" t="s">
         <v>42</v>
       </c>
@@ -18170,7 +18814,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AE178" s="16"/>
-      <c r="AF178" s="16"/>
+      <c r="AF178" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG178" s="3" t="s">
         <v>134</v>
       </c>
@@ -18245,6 +18891,9 @@
       <c r="X179" s="3">
         <v>3</v>
       </c>
+      <c r="Y179" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z179" s="2" t="s">
         <v>42</v>
       </c>
@@ -18252,7 +18901,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AE179" s="16"/>
-      <c r="AF179" s="16"/>
+      <c r="AF179" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG179" s="3" t="s">
         <v>134</v>
       </c>
@@ -18327,6 +18978,9 @@
       <c r="X180" s="3">
         <v>3</v>
       </c>
+      <c r="Y180" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z180" s="2" t="s">
         <v>42</v>
       </c>
@@ -18334,7 +18988,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AE180" s="16"/>
-      <c r="AF180" s="16"/>
+      <c r="AF180" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG180" s="3" t="s">
         <v>134</v>
       </c>
@@ -18409,6 +19065,9 @@
       <c r="X181" s="3">
         <v>3</v>
       </c>
+      <c r="Y181" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z181" s="2" t="s">
         <v>42</v>
       </c>
@@ -18416,7 +19075,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="AE181" s="16"/>
-      <c r="AF181" s="16"/>
+      <c r="AF181" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG181" s="3" t="s">
         <v>134</v>
       </c>
@@ -18489,6 +19150,9 @@
       <c r="X182" s="3">
         <v>3</v>
       </c>
+      <c r="Y182" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z182" s="2" t="s">
         <v>42</v>
       </c>
@@ -18496,7 +19160,9 @@
         <v>2024</v>
       </c>
       <c r="AE182" s="16"/>
-      <c r="AF182" s="16"/>
+      <c r="AF182" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG182" s="3" t="s">
         <v>134</v>
       </c>
@@ -18569,6 +19235,9 @@
       <c r="X183" s="3">
         <v>3</v>
       </c>
+      <c r="Y183" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z183" s="2" t="s">
         <v>42</v>
       </c>
@@ -18576,7 +19245,9 @@
         <v>2024</v>
       </c>
       <c r="AE183" s="16"/>
-      <c r="AF183" s="16"/>
+      <c r="AF183" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG183" s="3" t="s">
         <v>134</v>
       </c>
@@ -18651,6 +19322,9 @@
       <c r="X184" s="3">
         <v>3</v>
       </c>
+      <c r="Y184" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z184" s="2" t="s">
         <v>42</v>
       </c>
@@ -18658,7 +19332,9 @@
         <v>2024</v>
       </c>
       <c r="AE184" s="16"/>
-      <c r="AF184" s="16"/>
+      <c r="AF184" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG184" s="3" t="s">
         <v>134</v>
       </c>
@@ -18731,6 +19407,9 @@
       <c r="X185" s="3">
         <v>3</v>
       </c>
+      <c r="Y185" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z185" s="2" t="s">
         <v>42</v>
       </c>
@@ -18738,7 +19417,9 @@
         <v>2019</v>
       </c>
       <c r="AE185" s="16"/>
-      <c r="AF185" s="16"/>
+      <c r="AF185" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG185" s="3" t="s">
         <v>134</v>
       </c>
@@ -18811,6 +19492,9 @@
       <c r="X186" s="3">
         <v>3</v>
       </c>
+      <c r="Y186" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z186" s="2" t="s">
         <v>42</v>
       </c>
@@ -18818,7 +19502,9 @@
         <v>2019</v>
       </c>
       <c r="AE186" s="16"/>
-      <c r="AF186" s="16"/>
+      <c r="AF186" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG186" s="3" t="s">
         <v>134</v>
       </c>
@@ -18891,6 +19577,9 @@
       <c r="X187" s="3">
         <v>3</v>
       </c>
+      <c r="Y187" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z187" s="2" t="s">
         <v>42</v>
       </c>
@@ -18898,7 +19587,9 @@
         <v>2016</v>
       </c>
       <c r="AE187" s="16"/>
-      <c r="AF187" s="16"/>
+      <c r="AF187" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG187" s="3" t="s">
         <v>134</v>
       </c>
@@ -18971,6 +19662,9 @@
       <c r="X188" s="3">
         <v>3</v>
       </c>
+      <c r="Y188" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z188" s="2" t="s">
         <v>42</v>
       </c>
@@ -18978,7 +19672,9 @@
         <v>2020</v>
       </c>
       <c r="AE188" s="16"/>
-      <c r="AF188" s="16"/>
+      <c r="AF188" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG188" s="3" t="s">
         <v>134</v>
       </c>
@@ -19051,6 +19747,9 @@
       <c r="X189" s="3">
         <v>3</v>
       </c>
+      <c r="Y189" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z189" s="2" t="s">
         <v>42</v>
       </c>
@@ -19058,7 +19757,9 @@
         <v>2024</v>
       </c>
       <c r="AE189" s="16"/>
-      <c r="AF189" s="16"/>
+      <c r="AF189" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG189" s="3" t="s">
         <v>134</v>
       </c>
@@ -19131,6 +19832,9 @@
       <c r="X190" s="3">
         <v>3</v>
       </c>
+      <c r="Y190" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z190" s="2" t="s">
         <v>42</v>
       </c>
@@ -19138,7 +19842,9 @@
         <v>2021</v>
       </c>
       <c r="AE190" s="16"/>
-      <c r="AF190" s="16"/>
+      <c r="AF190" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG190" s="3" t="s">
         <v>134</v>
       </c>
@@ -19211,6 +19917,9 @@
       <c r="X191" s="3">
         <v>3</v>
       </c>
+      <c r="Y191" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z191" s="2" t="s">
         <v>42</v>
       </c>
@@ -19218,7 +19927,9 @@
         <v>2024</v>
       </c>
       <c r="AE191" s="16"/>
-      <c r="AF191" s="16"/>
+      <c r="AF191" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG191" s="3" t="s">
         <v>134</v>
       </c>
@@ -19291,6 +20002,9 @@
       <c r="X192" s="3">
         <v>3</v>
       </c>
+      <c r="Y192" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z192" s="2" t="s">
         <v>42</v>
       </c>
@@ -19298,7 +20012,9 @@
         <v>2021</v>
       </c>
       <c r="AE192" s="16"/>
-      <c r="AF192" s="16"/>
+      <c r="AF192" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG192" s="3" t="s">
         <v>134</v>
       </c>
@@ -19371,6 +20087,9 @@
       <c r="X193" s="3">
         <v>3</v>
       </c>
+      <c r="Y193" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z193" s="2" t="s">
         <v>42</v>
       </c>
@@ -19378,7 +20097,9 @@
         <v>2024</v>
       </c>
       <c r="AE193" s="16"/>
-      <c r="AF193" s="16"/>
+      <c r="AF193" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG193" s="3" t="s">
         <v>134</v>
       </c>
@@ -19451,6 +20172,9 @@
       <c r="X194" s="3">
         <v>3</v>
       </c>
+      <c r="Y194" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z194" s="2" t="s">
         <v>42</v>
       </c>
@@ -19458,7 +20182,9 @@
         <v>2024</v>
       </c>
       <c r="AE194" s="16"/>
-      <c r="AF194" s="16"/>
+      <c r="AF194" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG194" s="3" t="s">
         <v>134</v>
       </c>
@@ -19531,6 +20257,9 @@
       <c r="X195" s="3">
         <v>3</v>
       </c>
+      <c r="Y195" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z195" s="2" t="s">
         <v>42</v>
       </c>
@@ -19538,7 +20267,9 @@
         <v>2023</v>
       </c>
       <c r="AE195" s="16"/>
-      <c r="AF195" s="16"/>
+      <c r="AF195" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG195" s="3" t="s">
         <v>134</v>
       </c>
@@ -19611,6 +20342,9 @@
       <c r="X196" s="3">
         <v>3</v>
       </c>
+      <c r="Y196" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z196" s="2" t="s">
         <v>42</v>
       </c>
@@ -19618,7 +20352,9 @@
         <v>2024</v>
       </c>
       <c r="AE196" s="16"/>
-      <c r="AF196" s="16"/>
+      <c r="AF196" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG196" s="3" t="s">
         <v>134</v>
       </c>
@@ -19691,6 +20427,9 @@
       <c r="X197" s="3">
         <v>3</v>
       </c>
+      <c r="Y197" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z197" s="2" t="s">
         <v>42</v>
       </c>
@@ -19698,7 +20437,9 @@
         <v>2024</v>
       </c>
       <c r="AE197" s="16"/>
-      <c r="AF197" s="16"/>
+      <c r="AF197" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG197" s="3" t="s">
         <v>134</v>
       </c>
@@ -19771,6 +20512,9 @@
       <c r="X198" s="3">
         <v>3</v>
       </c>
+      <c r="Y198" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z198" s="2" t="s">
         <v>42</v>
       </c>
@@ -19778,7 +20522,9 @@
         <v>2024</v>
       </c>
       <c r="AE198" s="16"/>
-      <c r="AF198" s="16"/>
+      <c r="AF198" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG198" s="3" t="s">
         <v>134</v>
       </c>
@@ -19851,6 +20597,9 @@
       <c r="X199" s="3">
         <v>3</v>
       </c>
+      <c r="Y199" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z199" s="2" t="s">
         <v>42</v>
       </c>
@@ -19858,7 +20607,9 @@
         <v>2022</v>
       </c>
       <c r="AE199" s="16"/>
-      <c r="AF199" s="16"/>
+      <c r="AF199" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG199" s="3" t="s">
         <v>134</v>
       </c>
@@ -19931,6 +20682,9 @@
       <c r="X200" s="3">
         <v>2</v>
       </c>
+      <c r="Y200" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z200" s="2" t="s">
         <v>42</v>
       </c>
@@ -19938,7 +20692,9 @@
         <v>2024</v>
       </c>
       <c r="AE200" s="16"/>
-      <c r="AF200" s="16"/>
+      <c r="AF200" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG200" s="3" t="s">
         <v>134</v>
       </c>
@@ -20011,6 +20767,9 @@
       <c r="X201" s="3">
         <v>2</v>
       </c>
+      <c r="Y201" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z201" s="2" t="s">
         <v>42</v>
       </c>
@@ -20018,7 +20777,9 @@
         <v>2024</v>
       </c>
       <c r="AE201" s="16"/>
-      <c r="AF201" s="16"/>
+      <c r="AF201" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG201" s="3" t="s">
         <v>134</v>
       </c>
@@ -20091,6 +20852,9 @@
       <c r="X202" s="3">
         <v>2</v>
       </c>
+      <c r="Y202" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z202" s="2" t="s">
         <v>42</v>
       </c>
@@ -20098,7 +20862,9 @@
         <v>2024</v>
       </c>
       <c r="AE202" s="16"/>
-      <c r="AF202" s="16"/>
+      <c r="AF202" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG202" s="3" t="s">
         <v>134</v>
       </c>
@@ -20171,6 +20937,9 @@
       <c r="X203" s="3">
         <v>3</v>
       </c>
+      <c r="Y203" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z203" s="2" t="s">
         <v>42</v>
       </c>
@@ -20178,7 +20947,9 @@
         <v>2024</v>
       </c>
       <c r="AE203" s="16"/>
-      <c r="AF203" s="16"/>
+      <c r="AF203" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG203" s="3" t="s">
         <v>134</v>
       </c>
@@ -20266,7 +21037,9 @@
       <c r="AE204" s="16">
         <v>2024</v>
       </c>
-      <c r="AF204" s="16"/>
+      <c r="AF204" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG204" s="11" t="s">
         <v>769</v>
       </c>
@@ -20339,6 +21112,9 @@
       <c r="X205" s="3">
         <v>3</v>
       </c>
+      <c r="Y205" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z205" s="2" t="s">
         <v>42</v>
       </c>
@@ -20346,7 +21122,9 @@
         <v>2024</v>
       </c>
       <c r="AE205" s="16"/>
-      <c r="AF205" s="16"/>
+      <c r="AF205" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG205" s="3" t="s">
         <v>134</v>
       </c>
@@ -20419,6 +21197,9 @@
       <c r="X206" s="3">
         <v>3</v>
       </c>
+      <c r="Y206" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z206" s="2" t="s">
         <v>42</v>
       </c>
@@ -20426,7 +21207,9 @@
         <v>2024</v>
       </c>
       <c r="AE206" s="16"/>
-      <c r="AF206" s="16"/>
+      <c r="AF206" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG206" s="3" t="s">
         <v>134</v>
       </c>
@@ -20499,6 +21282,9 @@
       <c r="X207" s="3">
         <v>2</v>
       </c>
+      <c r="Y207" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z207" s="2" t="s">
         <v>42</v>
       </c>
@@ -20506,7 +21292,9 @@
         <v>2024</v>
       </c>
       <c r="AE207" s="16"/>
-      <c r="AF207" s="16"/>
+      <c r="AF207" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG207" s="3" t="s">
         <v>134</v>
       </c>
@@ -20579,6 +21367,9 @@
       <c r="X208" s="3">
         <v>3</v>
       </c>
+      <c r="Y208" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z208" s="2" t="s">
         <v>42</v>
       </c>
@@ -20586,7 +21377,9 @@
         <v>2024</v>
       </c>
       <c r="AE208" s="16"/>
-      <c r="AF208" s="16"/>
+      <c r="AF208" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG208" s="3" t="s">
         <v>134</v>
       </c>
@@ -20659,6 +21452,9 @@
       <c r="X209" s="3">
         <v>4</v>
       </c>
+      <c r="Y209" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z209" s="2" t="s">
         <v>42</v>
       </c>
@@ -20666,7 +21462,9 @@
         <v>2024</v>
       </c>
       <c r="AE209" s="16"/>
-      <c r="AF209" s="16"/>
+      <c r="AF209" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG209" s="3" t="s">
         <v>134</v>
       </c>
@@ -20739,6 +21537,9 @@
       <c r="X210" s="3">
         <v>4</v>
       </c>
+      <c r="Y210" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z210" s="2" t="s">
         <v>42</v>
       </c>
@@ -20746,7 +21547,9 @@
         <v>2024</v>
       </c>
       <c r="AE210" s="16"/>
-      <c r="AF210" s="16"/>
+      <c r="AF210" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG210" s="3" t="s">
         <v>134</v>
       </c>
@@ -20819,6 +21622,9 @@
       <c r="X211" s="3">
         <v>4</v>
       </c>
+      <c r="Y211" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z211" s="2" t="s">
         <v>42</v>
       </c>
@@ -20826,7 +21632,9 @@
         <v>2024</v>
       </c>
       <c r="AE211" s="16"/>
-      <c r="AF211" s="16"/>
+      <c r="AF211" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="AG211" s="3" t="s">
         <v>134</v>
       </c>
@@ -20899,6 +21707,9 @@
       <c r="X212" s="3">
         <v>3</v>
       </c>
+      <c r="Y212" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z212" s="2" t="s">
         <v>42</v>
       </c>
@@ -20906,7 +21717,9 @@
         <v>2024</v>
       </c>
       <c r="AE212" s="16"/>
-      <c r="AF212" s="16"/>
+      <c r="AF212" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG212" s="3" t="s">
         <v>134</v>
       </c>
@@ -20979,6 +21792,9 @@
       <c r="X213" s="3">
         <v>3</v>
       </c>
+      <c r="Y213" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z213" s="2" t="s">
         <v>42</v>
       </c>
@@ -20986,7 +21802,9 @@
         <v>2024</v>
       </c>
       <c r="AE213" s="16"/>
-      <c r="AF213" s="16"/>
+      <c r="AF213" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG213" s="3" t="s">
         <v>134</v>
       </c>
@@ -21059,6 +21877,9 @@
       <c r="X214" s="3">
         <v>3</v>
       </c>
+      <c r="Y214" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z214" s="2" t="s">
         <v>42</v>
       </c>
@@ -21066,7 +21887,9 @@
         <v>2024</v>
       </c>
       <c r="AE214" s="16"/>
-      <c r="AF214" s="16"/>
+      <c r="AF214" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG214" s="3" t="s">
         <v>134</v>
       </c>
@@ -21139,6 +21962,9 @@
       <c r="X215" s="3">
         <v>3</v>
       </c>
+      <c r="Y215" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z215" s="2" t="s">
         <v>42</v>
       </c>
@@ -21146,7 +21972,9 @@
         <v>2024</v>
       </c>
       <c r="AE215" s="16"/>
-      <c r="AF215" s="16"/>
+      <c r="AF215" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG215" s="3" t="s">
         <v>134</v>
       </c>
@@ -21219,6 +22047,9 @@
       <c r="X216" s="3">
         <v>3</v>
       </c>
+      <c r="Y216" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z216" s="2" t="s">
         <v>42</v>
       </c>
@@ -21226,7 +22057,9 @@
         <v>2024</v>
       </c>
       <c r="AE216" s="16"/>
-      <c r="AF216" s="16"/>
+      <c r="AF216" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG216" s="3" t="s">
         <v>134</v>
       </c>
@@ -21299,6 +22132,9 @@
       <c r="X217" s="3">
         <v>3</v>
       </c>
+      <c r="Y217" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z217" s="2" t="s">
         <v>42</v>
       </c>
@@ -21306,7 +22142,9 @@
         <v>2024</v>
       </c>
       <c r="AE217" s="16"/>
-      <c r="AF217" s="16"/>
+      <c r="AF217" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG217" s="3" t="s">
         <v>134</v>
       </c>
@@ -21379,6 +22217,9 @@
       <c r="X218" s="3">
         <v>3</v>
       </c>
+      <c r="Y218" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z218" s="2" t="s">
         <v>42</v>
       </c>
@@ -21386,7 +22227,9 @@
         <v>2018</v>
       </c>
       <c r="AE218" s="16"/>
-      <c r="AF218" s="16"/>
+      <c r="AF218" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG218" s="3" t="s">
         <v>134</v>
       </c>
@@ -21459,6 +22302,9 @@
       <c r="X219" s="3">
         <v>3</v>
       </c>
+      <c r="Y219" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z219" s="2" t="s">
         <v>42</v>
       </c>
@@ -21466,7 +22312,9 @@
         <v>2024</v>
       </c>
       <c r="AE219" s="16"/>
-      <c r="AF219" s="16"/>
+      <c r="AF219" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG219" s="3" t="s">
         <v>134</v>
       </c>
@@ -21539,6 +22387,9 @@
       <c r="X220" s="3">
         <v>3</v>
       </c>
+      <c r="Y220" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z220" s="2" t="s">
         <v>42</v>
       </c>
@@ -21546,7 +22397,9 @@
         <v>2024</v>
       </c>
       <c r="AE220" s="16"/>
-      <c r="AF220" s="16"/>
+      <c r="AF220" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG220" s="3" t="s">
         <v>134</v>
       </c>
@@ -21619,6 +22472,9 @@
       <c r="X221" s="3">
         <v>3</v>
       </c>
+      <c r="Y221" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z221" s="2" t="s">
         <v>42</v>
       </c>
@@ -21626,7 +22482,9 @@
         <v>2024</v>
       </c>
       <c r="AE221" s="16"/>
-      <c r="AF221" s="16"/>
+      <c r="AF221" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG221" s="3" t="s">
         <v>134</v>
       </c>
@@ -21699,6 +22557,9 @@
       <c r="X222" s="3">
         <v>3</v>
       </c>
+      <c r="Y222" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z222" s="2" t="s">
         <v>42</v>
       </c>
@@ -21706,7 +22567,9 @@
         <v>2024</v>
       </c>
       <c r="AE222" s="16"/>
-      <c r="AF222" s="16"/>
+      <c r="AF222" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG222" s="3" t="s">
         <v>134</v>
       </c>
@@ -21779,6 +22642,9 @@
       <c r="X223" s="3">
         <v>3</v>
       </c>
+      <c r="Y223" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z223" s="2" t="s">
         <v>42</v>
       </c>
@@ -21786,7 +22652,9 @@
         <v>2024</v>
       </c>
       <c r="AE223" s="16"/>
-      <c r="AF223" s="16"/>
+      <c r="AF223" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG223" s="3" t="s">
         <v>134</v>
       </c>
@@ -21871,7 +22739,9 @@
       <c r="AE224" s="16">
         <v>2024</v>
       </c>
-      <c r="AF224" s="16"/>
+      <c r="AF224" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG224" s="11" t="s">
         <v>769</v>
       </c>
@@ -21956,7 +22826,9 @@
       <c r="AE225" s="16">
         <v>2024</v>
       </c>
-      <c r="AF225" s="16"/>
+      <c r="AF225" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG225" s="11" t="s">
         <v>769</v>
       </c>
@@ -22025,6 +22897,9 @@
       <c r="X226" s="3">
         <v>3</v>
       </c>
+      <c r="Y226" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z226" s="2" t="s">
         <v>42</v>
       </c>
@@ -22925,6 +23800,9 @@
       <c r="X237" s="3">
         <v>3</v>
       </c>
+      <c r="Y237" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z237" s="2" t="s">
         <v>42</v>
       </c>
@@ -22932,7 +23810,9 @@
         <v>2023</v>
       </c>
       <c r="AE237" s="16"/>
-      <c r="AF237" s="16"/>
+      <c r="AF237" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG237" s="3" t="s">
         <v>134</v>
       </c>
@@ -23005,6 +23885,9 @@
       <c r="X238" s="3">
         <v>4</v>
       </c>
+      <c r="Y238" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z238" s="2" t="s">
         <v>42</v>
       </c>
@@ -23012,7 +23895,9 @@
         <v>2024</v>
       </c>
       <c r="AE238" s="16"/>
-      <c r="AF238" s="16"/>
+      <c r="AF238" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG238" s="3" t="s">
         <v>134</v>
       </c>
@@ -23085,6 +23970,9 @@
       <c r="X239" s="3">
         <v>4</v>
       </c>
+      <c r="Y239" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z239" s="2" t="s">
         <v>42</v>
       </c>
@@ -23092,7 +23980,9 @@
         <v>2024</v>
       </c>
       <c r="AE239" s="16"/>
-      <c r="AF239" s="16"/>
+      <c r="AF239" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG239" s="3" t="s">
         <v>134</v>
       </c>
@@ -23165,6 +24055,9 @@
       <c r="X240" s="3">
         <v>3</v>
       </c>
+      <c r="Y240" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z240" s="2" t="s">
         <v>42</v>
       </c>
@@ -23172,7 +24065,9 @@
         <v>2024</v>
       </c>
       <c r="AE240" s="16"/>
-      <c r="AF240" s="16"/>
+      <c r="AF240" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG240" s="3" t="s">
         <v>134</v>
       </c>
@@ -23245,6 +24140,9 @@
       <c r="X241" s="3">
         <v>3</v>
       </c>
+      <c r="Y241" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z241" s="2" t="s">
         <v>42</v>
       </c>
@@ -23252,7 +24150,9 @@
         <v>2015</v>
       </c>
       <c r="AE241" s="16"/>
-      <c r="AF241" s="16"/>
+      <c r="AF241" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="AG241" s="3" t="s">
         <v>134</v>
       </c>
@@ -23325,6 +24225,9 @@
       <c r="X242" s="3">
         <v>3</v>
       </c>
+      <c r="Y242" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z242" s="2" t="s">
         <v>42</v>
       </c>
@@ -23332,7 +24235,9 @@
         <v>2024</v>
       </c>
       <c r="AE242" s="16"/>
-      <c r="AF242" s="16"/>
+      <c r="AF242" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG242" s="3" t="s">
         <v>134</v>
       </c>
@@ -23405,6 +24310,9 @@
       <c r="X243" s="3">
         <v>3</v>
       </c>
+      <c r="Y243" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z243" s="2" t="s">
         <v>42</v>
       </c>
@@ -23412,7 +24320,9 @@
         <v>2024</v>
       </c>
       <c r="AE243" s="16"/>
-      <c r="AF243" s="16"/>
+      <c r="AF243" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG243" s="3" t="s">
         <v>134</v>
       </c>
@@ -23485,6 +24395,9 @@
       <c r="X244" s="3">
         <v>3</v>
       </c>
+      <c r="Y244" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z244" s="2" t="s">
         <v>42</v>
       </c>
@@ -23492,7 +24405,9 @@
         <v>2024</v>
       </c>
       <c r="AE244" s="16"/>
-      <c r="AF244" s="16"/>
+      <c r="AF244" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG244" s="3" t="s">
         <v>134</v>
       </c>
@@ -23565,6 +24480,9 @@
       <c r="X245" s="3">
         <v>3</v>
       </c>
+      <c r="Y245" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z245" s="2" t="s">
         <v>42</v>
       </c>
@@ -23572,7 +24490,9 @@
         <v>2024</v>
       </c>
       <c r="AE245" s="16"/>
-      <c r="AF245" s="16"/>
+      <c r="AF245" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG245" s="3" t="s">
         <v>134</v>
       </c>
@@ -23645,6 +24565,9 @@
       <c r="X246" s="3">
         <v>3</v>
       </c>
+      <c r="Y246" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z246" s="2" t="s">
         <v>42</v>
       </c>
@@ -23652,7 +24575,9 @@
         <v>2024</v>
       </c>
       <c r="AE246" s="16"/>
-      <c r="AF246" s="16"/>
+      <c r="AF246" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG246" s="3" t="s">
         <v>134</v>
       </c>
@@ -23725,6 +24650,9 @@
       <c r="X247" s="3">
         <v>3</v>
       </c>
+      <c r="Y247" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z247" s="2" t="s">
         <v>42</v>
       </c>
@@ -23732,7 +24660,9 @@
         <v>2024</v>
       </c>
       <c r="AE247" s="16"/>
-      <c r="AF247" s="16"/>
+      <c r="AF247" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG247" s="3" t="s">
         <v>134</v>
       </c>
@@ -23805,6 +24735,9 @@
       <c r="X248" s="3">
         <v>3</v>
       </c>
+      <c r="Y248" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z248" s="2" t="s">
         <v>42</v>
       </c>
@@ -23812,7 +24745,9 @@
         <v>2024</v>
       </c>
       <c r="AE248" s="16"/>
-      <c r="AF248" s="16"/>
+      <c r="AF248" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG248" s="3" t="s">
         <v>134</v>
       </c>
@@ -23885,6 +24820,9 @@
       <c r="X249" s="3">
         <v>3</v>
       </c>
+      <c r="Y249" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z249" s="2" t="s">
         <v>42</v>
       </c>
@@ -23892,7 +24830,9 @@
         <v>2024</v>
       </c>
       <c r="AE249" s="16"/>
-      <c r="AF249" s="16"/>
+      <c r="AF249" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG249" s="3" t="s">
         <v>134</v>
       </c>
@@ -23965,6 +24905,9 @@
       <c r="X250" s="3">
         <v>3</v>
       </c>
+      <c r="Y250" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z250" s="2" t="s">
         <v>42</v>
       </c>
@@ -23972,7 +24915,9 @@
         <v>2025</v>
       </c>
       <c r="AE250" s="16"/>
-      <c r="AF250" s="16"/>
+      <c r="AF250" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG250" s="3" t="s">
         <v>134</v>
       </c>
@@ -24045,6 +24990,9 @@
       <c r="X251" s="3">
         <v>2</v>
       </c>
+      <c r="Y251" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z251" s="2" t="s">
         <v>42</v>
       </c>
@@ -24052,7 +25000,9 @@
         <v>2025</v>
       </c>
       <c r="AE251" s="16"/>
-      <c r="AF251" s="16"/>
+      <c r="AF251" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG251" s="3" t="s">
         <v>134</v>
       </c>
@@ -24125,6 +25075,9 @@
       <c r="X252" s="3">
         <v>3</v>
       </c>
+      <c r="Y252" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z252" s="2" t="s">
         <v>42</v>
       </c>
@@ -24132,7 +25085,9 @@
         <v>2024</v>
       </c>
       <c r="AE252" s="16"/>
-      <c r="AF252" s="16"/>
+      <c r="AF252" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG252" s="3" t="s">
         <v>134</v>
       </c>
@@ -24205,6 +25160,9 @@
       <c r="X253" s="3">
         <v>3</v>
       </c>
+      <c r="Y253" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z253" s="2" t="s">
         <v>42</v>
       </c>
@@ -24212,7 +25170,9 @@
         <v>2022</v>
       </c>
       <c r="AE253" s="16"/>
-      <c r="AF253" s="16"/>
+      <c r="AF253" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG253" s="3" t="s">
         <v>134</v>
       </c>
@@ -24285,6 +25245,9 @@
       <c r="X254" s="3">
         <v>3</v>
       </c>
+      <c r="Y254" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z254" s="2" t="s">
         <v>42</v>
       </c>
@@ -24292,7 +25255,9 @@
         <v>2024</v>
       </c>
       <c r="AE254" s="16"/>
-      <c r="AF254" s="16"/>
+      <c r="AF254" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG254" s="3" t="s">
         <v>134</v>
       </c>
@@ -24365,6 +25330,9 @@
       <c r="X255" s="3">
         <v>3</v>
       </c>
+      <c r="Y255" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z255" s="2" t="s">
         <v>42</v>
       </c>
@@ -24372,7 +25340,9 @@
         <v>2011</v>
       </c>
       <c r="AE255" s="16"/>
-      <c r="AF255" s="16"/>
+      <c r="AF255" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG255" s="3" t="s">
         <v>134</v>
       </c>
@@ -24445,6 +25415,9 @@
       <c r="X256" s="3">
         <v>3</v>
       </c>
+      <c r="Y256" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z256" s="2" t="s">
         <v>42</v>
       </c>
@@ -24452,7 +25425,9 @@
         <v>2024</v>
       </c>
       <c r="AE256" s="16"/>
-      <c r="AF256" s="16"/>
+      <c r="AF256" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG256" s="3" t="s">
         <v>134</v>
       </c>
@@ -24525,6 +25500,9 @@
       <c r="X257" s="3">
         <v>3</v>
       </c>
+      <c r="Y257" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z257" s="2" t="s">
         <v>42</v>
       </c>
@@ -24532,7 +25510,9 @@
         <v>2024</v>
       </c>
       <c r="AE257" s="16"/>
-      <c r="AF257" s="16"/>
+      <c r="AF257" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG257" s="3" t="s">
         <v>134</v>
       </c>
@@ -24605,6 +25585,9 @@
       <c r="X258" s="3">
         <v>3</v>
       </c>
+      <c r="Y258" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z258" s="2" t="s">
         <v>42</v>
       </c>
@@ -24612,7 +25595,9 @@
         <v>2024</v>
       </c>
       <c r="AE258" s="16"/>
-      <c r="AF258" s="16"/>
+      <c r="AF258" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG258" s="3" t="s">
         <v>134</v>
       </c>
@@ -24685,6 +25670,9 @@
       <c r="X259" s="3">
         <v>3</v>
       </c>
+      <c r="Y259" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="Z259" s="2" t="s">
         <v>42</v>
       </c>
@@ -24692,15 +25680,1654 @@
         <v>2016</v>
       </c>
       <c r="AE259" s="16"/>
-      <c r="AF259" s="16"/>
+      <c r="AF259" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="AG259" s="3" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="260" spans="1:33">
+      <c r="A260" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B260" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C260" s="2">
+        <v>259</v>
+      </c>
+      <c r="D260" s="2">
+        <v>24</v>
+      </c>
+      <c r="F260" s="4">
+        <v>45692</v>
+      </c>
+      <c r="G260" s="5">
+        <v>45684</v>
+      </c>
+      <c r="H260" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="I260" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K260" s="7">
+        <v>36437</v>
+      </c>
+      <c r="L260" s="8">
+        <v>12303</v>
+      </c>
+      <c r="M260" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="N260" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O260" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P260" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q260" s="9">
+        <v>40434</v>
+      </c>
+      <c r="R260" s="16">
+        <v>15</v>
+      </c>
+      <c r="S260" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T260" s="3">
+        <v>1</v>
+      </c>
+      <c r="U260" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V260" s="7">
+        <v>43714</v>
+      </c>
+      <c r="X260" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y260" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z260" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD260" s="3">
+        <v>2019</v>
+      </c>
+      <c r="AF260" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG260" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="261" spans="1:33">
+      <c r="A261" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B261" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C261" s="2">
+        <v>260</v>
+      </c>
+      <c r="D261" s="2">
+        <v>25</v>
+      </c>
+      <c r="F261" s="4">
+        <v>45700</v>
+      </c>
+      <c r="G261" s="5">
+        <v>29298</v>
+      </c>
+      <c r="H261" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="I261" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K261" s="7">
+        <v>36203</v>
+      </c>
+      <c r="L261" s="8">
+        <v>14922</v>
+      </c>
+      <c r="M261" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N261" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O261" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P261" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q261" s="9">
+        <v>38615</v>
+      </c>
+      <c r="R261" s="16">
+        <v>20</v>
+      </c>
+      <c r="S261" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T261" s="3">
+        <v>1</v>
+      </c>
+      <c r="U261" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V261" s="7">
+        <v>45548</v>
+      </c>
+      <c r="X261" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y261" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z261" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD261" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF261" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG261" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="262" spans="1:33">
+      <c r="A262" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B262" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C262" s="2">
+        <v>261</v>
+      </c>
+      <c r="D262" s="2">
+        <v>26</v>
+      </c>
+      <c r="F262" s="4">
+        <v>45700</v>
+      </c>
+      <c r="G262" s="5">
+        <v>501578</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="I262" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K262" s="7">
+        <v>32661</v>
+      </c>
+      <c r="L262" s="8">
+        <v>7562</v>
+      </c>
+      <c r="M262" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="N262" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O262" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P262" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q262" s="9">
+        <v>44599</v>
+      </c>
+      <c r="R262" s="16">
+        <v>3</v>
+      </c>
+      <c r="S262" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T262" s="3">
+        <v>0</v>
+      </c>
+      <c r="U262" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V262" s="7">
+        <v>45380</v>
+      </c>
+      <c r="X262" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y262" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z262" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD262" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF262" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG262" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="263" spans="1:33">
+      <c r="A263" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B263" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C263" s="2">
+        <v>262</v>
+      </c>
+      <c r="D263" s="2">
+        <v>27</v>
+      </c>
+      <c r="F263" s="4">
+        <v>45700</v>
+      </c>
+      <c r="G263" s="5">
+        <v>84764</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="I263" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K263" s="7">
+        <v>35227</v>
+      </c>
+      <c r="L263" s="8">
+        <v>11725</v>
+      </c>
+      <c r="M263" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N263" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O263" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P263" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q263" s="9">
+        <v>42376</v>
+      </c>
+      <c r="R263" s="16">
+        <v>9</v>
+      </c>
+      <c r="S263" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T263" s="3">
+        <v>3</v>
+      </c>
+      <c r="U263" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V263" s="7">
+        <v>45649</v>
+      </c>
+      <c r="X263" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y263" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z263" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD263" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF263" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG263" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="264" spans="1:33">
+      <c r="A264" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B264" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C264" s="2">
+        <v>263</v>
+      </c>
+      <c r="D264" s="2">
+        <v>28</v>
+      </c>
+      <c r="F264" s="4">
+        <v>45700</v>
+      </c>
+      <c r="G264" s="5">
+        <v>28300</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="I264" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K264" s="7">
+        <v>32509</v>
+      </c>
+      <c r="L264" s="8">
+        <v>15314</v>
+      </c>
+      <c r="M264" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N264" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O264" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P264" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q264" s="9">
+        <v>38282</v>
+      </c>
+      <c r="R264" s="16">
+        <v>21</v>
+      </c>
+      <c r="S264" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T264" s="3">
+        <v>5</v>
+      </c>
+      <c r="U264" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="V264" s="7">
+        <v>45634</v>
+      </c>
+      <c r="X264" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y264" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z264" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD264" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF264" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG264" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="265" spans="1:33">
+      <c r="A265" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B265" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C265" s="2">
+        <v>264</v>
+      </c>
+      <c r="D265" s="2">
+        <v>29</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G265" s="5">
+        <v>87580</v>
+      </c>
+      <c r="H265" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="I265" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K265" s="7">
+        <v>30474</v>
+      </c>
+      <c r="L265" s="8">
+        <v>9944</v>
+      </c>
+      <c r="M265" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N265" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O265" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P265" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q265" s="9">
+        <v>43870</v>
+      </c>
+      <c r="R265" s="16">
+        <v>5</v>
+      </c>
+      <c r="S265" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T265" s="3">
+        <v>0</v>
+      </c>
+      <c r="U265" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V265" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="X265" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y265" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z265" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD265" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF265" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG265" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="266" spans="1:33">
+      <c r="A266" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B266" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C266" s="2">
+        <v>265</v>
+      </c>
+      <c r="D266" s="2">
+        <v>30</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G266" s="5">
+        <v>45810</v>
+      </c>
+      <c r="H266" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="I266" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K266" s="7">
+        <v>31028</v>
+      </c>
+      <c r="L266" s="8">
+        <v>13720</v>
+      </c>
+      <c r="M266" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N266" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O266" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P266" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q266" s="9">
+        <v>40434</v>
+      </c>
+      <c r="R266" s="16">
+        <v>15</v>
+      </c>
+      <c r="S266" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T266" s="3">
+        <v>3</v>
+      </c>
+      <c r="U266" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V266" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="X266" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y266" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z266" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD266" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF266" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG266" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="267" spans="1:33">
+      <c r="A267" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B267" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C267" s="2">
+        <v>266</v>
+      </c>
+      <c r="D267" s="2">
+        <v>31</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G267" s="5">
+        <v>43954</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I267" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K267" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="L267" s="8">
+        <v>14502</v>
+      </c>
+      <c r="M267" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N267" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O267" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P267" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q267" s="9">
+        <v>40057</v>
+      </c>
+      <c r="R267" s="16">
+        <v>16</v>
+      </c>
+      <c r="S267" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T267" s="3">
+        <v>4</v>
+      </c>
+      <c r="U267" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V267" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="X267" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y267" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z267" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD267" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF267" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG267" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="268" spans="1:33">
+      <c r="A268" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B268" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C268" s="2">
+        <v>267</v>
+      </c>
+      <c r="D268" s="2">
+        <v>32</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G268" s="5">
+        <v>40251</v>
+      </c>
+      <c r="H268" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="I268" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K268" s="7">
+        <v>35910</v>
+      </c>
+      <c r="L268" s="8">
+        <v>14429</v>
+      </c>
+      <c r="M268" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="N268" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O268" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P268" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q268" s="9">
+        <v>38992</v>
+      </c>
+      <c r="R268" s="16">
+        <v>19</v>
+      </c>
+      <c r="S268" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T268" s="3">
+        <v>0</v>
+      </c>
+      <c r="U268" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V268" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="X268" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y268" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z268" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD268" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF268" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG268" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="269" spans="1:33">
+      <c r="A269" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B269" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C269" s="2">
+        <v>268</v>
+      </c>
+      <c r="D269" s="2">
+        <v>33</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G269" s="5">
+        <v>40788</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="I269" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K269" s="7">
+        <v>36194</v>
+      </c>
+      <c r="L269" s="8">
+        <v>15261</v>
+      </c>
+      <c r="M269" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="N269" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O269" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P269" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q269" s="9">
+        <v>38992</v>
+      </c>
+      <c r="R269" s="16">
+        <v>19</v>
+      </c>
+      <c r="S269" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T269" s="3">
+        <v>0</v>
+      </c>
+      <c r="U269" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V269" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="X269" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y269" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z269" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD269" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF269" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG269" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="270" spans="1:33">
+      <c r="A270" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B270" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C270" s="2">
+        <v>269</v>
+      </c>
+      <c r="D270" s="2">
+        <v>34</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G270" s="5">
+        <v>87512</v>
+      </c>
+      <c r="H270" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="I270" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K270" s="7">
+        <v>37587</v>
+      </c>
+      <c r="L270" s="8">
+        <v>9603</v>
+      </c>
+      <c r="M270" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N270" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O270" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P270" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q270" s="9">
+        <v>43870</v>
+      </c>
+      <c r="R270" s="16">
+        <v>5</v>
+      </c>
+      <c r="S270" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T270" s="3">
+        <v>0</v>
+      </c>
+      <c r="U270" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V270" s="7">
+        <v>45717</v>
+      </c>
+      <c r="X270" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y270" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z270" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD270" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AF270" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG270" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="271" spans="1:33">
+      <c r="A271" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B271" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C271" s="2">
+        <v>270</v>
+      </c>
+      <c r="D271" s="2">
+        <v>35</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G271" s="5">
+        <v>92155</v>
+      </c>
+      <c r="H271" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="I271" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K271" s="7">
+        <v>31041</v>
+      </c>
+      <c r="L271" s="8">
+        <v>9352</v>
+      </c>
+      <c r="M271" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N271" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O271" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P271" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q271" s="9">
+        <v>44157</v>
+      </c>
+      <c r="R271" s="16">
+        <v>5</v>
+      </c>
+      <c r="S271" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T271" s="3">
+        <v>1</v>
+      </c>
+      <c r="U271" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V271" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="X271" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y271" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z271" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD271" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF271" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG271" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="272" spans="1:33">
+      <c r="A272" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B272" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C272" s="2">
+        <v>271</v>
+      </c>
+      <c r="D272" s="2">
+        <v>36</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G272" s="5">
+        <v>48727</v>
+      </c>
+      <c r="H272" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="I272" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K272" s="7">
+        <v>36196</v>
+      </c>
+      <c r="L272" s="8">
+        <v>11731</v>
+      </c>
+      <c r="M272" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N272" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O272" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P272" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q272" s="9">
+        <v>41396</v>
+      </c>
+      <c r="R272" s="16">
+        <v>12</v>
+      </c>
+      <c r="S272" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T272" s="3">
+        <v>1</v>
+      </c>
+      <c r="U272" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="V272" s="7">
+        <v>45689</v>
+      </c>
+      <c r="X272" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y272" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z272" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD272" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AF272" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG272" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="273" spans="1:33">
+      <c r="A273" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B273" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C273" s="2">
+        <v>272</v>
+      </c>
+      <c r="D273" s="2">
+        <v>37</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G273" s="5">
+        <v>500476</v>
+      </c>
+      <c r="H273" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="I273" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K273" s="7">
+        <v>34757</v>
+      </c>
+      <c r="L273" s="8">
+        <v>9377</v>
+      </c>
+      <c r="M273" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="N273" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O273" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P273" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q273" s="9">
+        <v>44599</v>
+      </c>
+      <c r="R273" s="16">
+        <v>3</v>
+      </c>
+      <c r="S273" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T273" s="3">
+        <v>0</v>
+      </c>
+      <c r="U273" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V273" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="X273" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y273" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z273" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD273" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF273" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG273" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="274" spans="1:33">
+      <c r="A274" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B274" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C274" s="2">
+        <v>273</v>
+      </c>
+      <c r="D274" s="2">
+        <v>38</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G274" s="5">
+        <v>85224</v>
+      </c>
+      <c r="H274" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="I274" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K274" s="7">
+        <v>1</v>
+      </c>
+      <c r="L274" s="8">
+        <v>45678</v>
+      </c>
+      <c r="M274" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N274" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O274" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P274" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q274" s="9">
+        <v>42773</v>
+      </c>
+      <c r="R274" s="16">
+        <v>8</v>
+      </c>
+      <c r="S274" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T274" s="3">
+        <v>1</v>
+      </c>
+      <c r="U274" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V274" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="X274" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y274" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z274" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD274" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AF274" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG274" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="275" spans="1:33">
+      <c r="A275" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B275" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C275" s="2">
+        <v>274</v>
+      </c>
+      <c r="D275" s="2">
+        <v>39</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G275" s="5">
+        <v>93165</v>
+      </c>
+      <c r="H275" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="I275" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K275" s="7">
+        <v>1</v>
+      </c>
+      <c r="L275" s="8">
+        <v>9982</v>
+      </c>
+      <c r="M275" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N275" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O275" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P275" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q275" s="9">
+        <v>44157</v>
+      </c>
+      <c r="R275" s="16">
+        <v>5</v>
+      </c>
+      <c r="S275" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T275" s="3">
+        <v>0</v>
+      </c>
+      <c r="U275" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V275" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="X275" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y275" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z275" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD275" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF275" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG275" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="276" spans="1:33">
+      <c r="A276" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B276" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C276" s="2">
+        <v>275</v>
+      </c>
+      <c r="D276" s="2">
+        <v>40</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G276" s="5">
+        <v>24175</v>
+      </c>
+      <c r="H276" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="I276" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K276" s="7">
+        <v>32579</v>
+      </c>
+      <c r="L276" s="8">
+        <v>18301</v>
+      </c>
+      <c r="M276" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="N276" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O276" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P276" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q276" s="9">
+        <v>35728</v>
+      </c>
+      <c r="R276" s="16">
+        <v>28</v>
+      </c>
+      <c r="S276" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T276" s="3">
+        <v>7</v>
+      </c>
+      <c r="U276" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V276" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="X276" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y276" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z276" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD276" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AF276" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG276" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="277" spans="1:33">
+      <c r="A277" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B277" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C277" s="2">
+        <v>276</v>
+      </c>
+      <c r="D277" s="2">
+        <v>41</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G277" s="5">
+        <v>27274</v>
+      </c>
+      <c r="H277" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="I277" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K277" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L277" s="8">
+        <v>15749</v>
+      </c>
+      <c r="M277" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="N277" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O277" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P277" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q277" s="9">
+        <v>37592</v>
+      </c>
+      <c r="R277" s="16">
+        <v>23</v>
+      </c>
+      <c r="S277" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T277" s="3">
+        <v>3</v>
+      </c>
+      <c r="U277" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V277" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="X277" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y277" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z277" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD277" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF277" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG277" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="278" spans="1:33">
+      <c r="A278" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B278" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C278" s="2">
+        <v>277</v>
+      </c>
+      <c r="D278" s="2">
+        <v>42</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G278" s="5">
+        <v>44605</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="I278" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K278" s="7">
+        <v>35152</v>
+      </c>
+      <c r="L278" s="8">
+        <v>13343</v>
+      </c>
+      <c r="M278" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="N278" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O278" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P278" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q278" s="9">
+        <v>40057</v>
+      </c>
+      <c r="R278" s="16">
+        <v>16</v>
+      </c>
+      <c r="S278" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T278" s="3">
+        <v>3</v>
+      </c>
+      <c r="U278" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V278" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="X278" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y278" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z278" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD278" s="3">
+        <v>2024</v>
+      </c>
+      <c r="AF278" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AG278" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="283" spans="1:33">
+      <c r="K283" s="7"/>
+    </row>
+    <row r="284" spans="1:33">
+      <c r="K284" s="7"/>
+    </row>
+    <row r="285" spans="1:33">
+      <c r="K285" s="7"/>
+    </row>
+    <row r="286" spans="1:33">
+      <c r="K286" s="7"/>
+    </row>
+    <row r="287" spans="1:33">
+      <c r="K287" s="7"/>
+    </row>
+    <row r="288" spans="1:33">
+      <c r="K288" s="7"/>
+    </row>
+    <row r="289" spans="11:11">
+      <c r="K289" s="7"/>
+    </row>
+    <row r="290" spans="11:11">
+      <c r="K290" s="7"/>
+    </row>
+    <row r="291" spans="11:11">
+      <c r="K291" s="7"/>
+    </row>
+    <row r="292" spans="11:11">
+      <c r="K292" s="7"/>
+    </row>
+    <row r="293" spans="11:11">
+      <c r="K293" s="7"/>
+    </row>
+    <row r="294" spans="11:11">
+      <c r="K294" s="7"/>
+    </row>
+    <row r="295" spans="11:11">
+      <c r="K295" s="7"/>
+    </row>
+    <row r="296" spans="11:11">
+      <c r="K296" s="7"/>
+    </row>
+    <row r="297" spans="11:11">
+      <c r="K297" s="7"/>
+    </row>
+    <row r="298" spans="11:11">
+      <c r="K298" s="7"/>
+    </row>
+    <row r="299" spans="11:11">
+      <c r="K299" s="7"/>
+    </row>
+    <row r="300" spans="11:11">
+      <c r="K300" s="7"/>
+    </row>
+    <row r="301" spans="11:11">
+      <c r="K301" s="7"/>
+    </row>
+    <row r="302" spans="11:11">
+      <c r="K302" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AG259" xr:uid="{920FBCE2-ECBC-114F-95CB-CC30D0CF8C32}"/>
+  <autoFilter ref="A1:AG278" xr:uid="{920FBCE2-ECBC-114F-95CB-CC30D0CF8C32}"/>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
